--- a/result/without_base/12/valence/s01_8.xlsx
+++ b/result/without_base/12/valence/s01_8.xlsx
@@ -492,7 +492,7 @@
     </row>
     <row r="2" spans="1:13">
       <c r="A2" t="n">
-        <v>0.5300000011920929</v>
+        <v>0.5774999856948853</v>
       </c>
       <c r="B2" t="n">
         <v>200</v>
@@ -510,13 +510,13 @@
         <v>15</v>
       </c>
       <c r="G2" t="n">
-        <v>4</v>
+        <v>80</v>
       </c>
       <c r="H2" t="n">
         <v>0.5</v>
       </c>
       <c r="I2" t="n">
-        <v>0.0001</v>
+        <v>5e-06</v>
       </c>
       <c r="J2" t="s">
         <v>16</v>
@@ -542,7 +542,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E81"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -572,16 +572,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>0.5249999761581421</v>
+        <v>0.5399999916553497</v>
       </c>
       <c r="C2" t="n">
-        <v>5070.753173828125</v>
+        <v>41687.142578125</v>
       </c>
       <c r="D2" t="n">
-        <v>0.4830681844191118</v>
+        <v>0.5712500052018599</v>
       </c>
       <c r="E2" t="n">
-        <v>5071.117631392045</v>
+        <v>41688.17116477273</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -589,16 +589,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>0.570000022649765</v>
+        <v>0.5399999916553497</v>
       </c>
       <c r="C3" t="n">
-        <v>4968.51806640625</v>
+        <v>40906.185546875</v>
       </c>
       <c r="D3" t="n">
-        <v>0.5121590901504863</v>
+        <v>0.5882954489101063</v>
       </c>
       <c r="E3" t="n">
-        <v>4968.692427201705</v>
+        <v>40904.59232954546</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -606,16 +606,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>0.5349999964237213</v>
+        <v>0.5774999856948853</v>
       </c>
       <c r="C4" t="n">
-        <v>4868.044921875</v>
+        <v>40132.7109375</v>
       </c>
       <c r="D4" t="n">
-        <v>0.5238636352799155</v>
+        <v>0.6279545372182672</v>
       </c>
       <c r="E4" t="n">
-        <v>4868.201526988636</v>
+        <v>40130.84943181818</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -623,16 +623,1308 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
+        <v>0.6274999976158142</v>
+      </c>
+      <c r="C5" t="n">
+        <v>39372.29296875</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.6522727337750521</v>
+      </c>
+      <c r="E5" t="n">
+        <v>39370.17862215909</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="n">
+        <v>0.5999999940395355</v>
+      </c>
+      <c r="C6" t="n">
+        <v>38624.9296875</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.6534090909090909</v>
+      </c>
+      <c r="E6" t="n">
+        <v>38621.73259943182</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" t="n">
+        <v>0.5575000047683716</v>
+      </c>
+      <c r="C7" t="n">
+        <v>37889.880859375</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.6710227294401689</v>
+      </c>
+      <c r="E7" t="n">
+        <v>37885.92080965909</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" t="n">
+        <v>0.5224999785423279</v>
+      </c>
+      <c r="C8" t="n">
+        <v>37167.388671875</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.6802272742444818</v>
+      </c>
+      <c r="E8" t="n">
+        <v>37164.12926136364</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" t="n">
+        <v>0.5449999868869781</v>
+      </c>
+      <c r="C9" t="n">
+        <v>36456.224609375</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.6972727287899364</v>
+      </c>
+      <c r="E9" t="n">
+        <v>36453.62890625</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" t="n">
         <v>0.5300000011920929</v>
       </c>
-      <c r="C5" t="n">
-        <v>4769.721923828125</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.5353409106081183</v>
-      </c>
-      <c r="E5" t="n">
-        <v>4769.833718039773</v>
+      <c r="C10" t="n">
+        <v>35759.611328125</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.701477278362621</v>
+      </c>
+      <c r="E10" t="n">
+        <v>35755.42933238636</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" t="n">
+        <v>0.5925000011920929</v>
+      </c>
+      <c r="C11" t="n">
+        <v>35073.4609375</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.7269318103790283</v>
+      </c>
+      <c r="E11" t="n">
+        <v>35069.70205965909</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" t="n">
+        <v>0.6099999845027924</v>
+      </c>
+      <c r="C12" t="n">
+        <v>34400.24609375</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.7177272709933195</v>
+      </c>
+      <c r="E12" t="n">
+        <v>34397.07990056818</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" t="n">
+        <v>0.574999988079071</v>
+      </c>
+      <c r="C13" t="n">
+        <v>33740.044921875</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.7453409108248624</v>
+      </c>
+      <c r="E13" t="n">
+        <v>33736.49502840909</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" t="n">
+        <v>0.5849999785423279</v>
+      </c>
+      <c r="C14" t="n">
+        <v>33090.671875</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.7610227303071455</v>
+      </c>
+      <c r="E14" t="n">
+        <v>33087.13955965909</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" t="n">
+        <v>0.6074999868869781</v>
+      </c>
+      <c r="C15" t="n">
+        <v>32453.8662109375</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.7734090956774625</v>
+      </c>
+      <c r="E15" t="n">
+        <v>32450.06605113636</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" t="n">
+        <v>0.5275000035762787</v>
+      </c>
+      <c r="C16" t="n">
+        <v>31828.880859375</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.8026136430827054</v>
+      </c>
+      <c r="E16" t="n">
+        <v>31824.1640625</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" t="n">
+        <v>0.5649999976158142</v>
+      </c>
+      <c r="C17" t="n">
+        <v>31213.521484375</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.802499998699535</v>
+      </c>
+      <c r="E17" t="n">
+        <v>31209.79776278409</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" t="n">
+        <v>17</v>
+      </c>
+      <c r="B18" t="n">
+        <v>0.5399999916553497</v>
+      </c>
+      <c r="C18" t="n">
+        <v>30611.2890625</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0.8051136352799155</v>
+      </c>
+      <c r="E18" t="n">
+        <v>30606.54403409091</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" t="n">
+        <v>18</v>
+      </c>
+      <c r="B19" t="n">
+        <v>0.552499994635582</v>
+      </c>
+      <c r="C19" t="n">
+        <v>30018.79296875</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0.8059090917760675</v>
+      </c>
+      <c r="E19" t="n">
+        <v>30014.19815340909</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" t="n">
+        <v>19</v>
+      </c>
+      <c r="B20" t="n">
+        <v>0.5224999934434891</v>
+      </c>
+      <c r="C20" t="n">
+        <v>29437.1357421875</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0.7830681855028326</v>
+      </c>
+      <c r="E20" t="n">
+        <v>29432.68625710227</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" t="n">
+        <v>20</v>
+      </c>
+      <c r="B21" t="n">
+        <v>0.5450000166893005</v>
+      </c>
+      <c r="C21" t="n">
+        <v>28864.9130859375</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0.8300000049851157</v>
+      </c>
+      <c r="E21" t="n">
+        <v>28860.91228693182</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" t="n">
+        <v>21</v>
+      </c>
+      <c r="B22" t="n">
+        <v>0.5150000005960464</v>
+      </c>
+      <c r="C22" t="n">
+        <v>28304.9912109375</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0.8211363716558977</v>
+      </c>
+      <c r="E22" t="n">
+        <v>28300.21768465909</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" t="n">
+        <v>22</v>
+      </c>
+      <c r="B23" t="n">
+        <v>0.5774999856948853</v>
+      </c>
+      <c r="C23" t="n">
+        <v>27753.1923828125</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0.8515909097411416</v>
+      </c>
+      <c r="E23" t="n">
+        <v>27749.16104403409</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" t="n">
+        <v>23</v>
+      </c>
+      <c r="B24" t="n">
+        <v>0.5999999940395355</v>
+      </c>
+      <c r="C24" t="n">
+        <v>27211.869140625</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0.8672727183862166</v>
+      </c>
+      <c r="E24" t="n">
+        <v>27208.41193181818</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" t="n">
+        <v>24</v>
+      </c>
+      <c r="B25" t="n">
+        <v>0.5499999821186066</v>
+      </c>
+      <c r="C25" t="n">
+        <v>26681.47265625</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0.8745454495603388</v>
+      </c>
+      <c r="E25" t="n">
+        <v>26677.46022727273</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" t="n">
+        <v>25</v>
+      </c>
+      <c r="B26" t="n">
+        <v>0.5874999761581421</v>
+      </c>
+      <c r="C26" t="n">
+        <v>26160.3984375</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0.8562499989162792</v>
+      </c>
+      <c r="E26" t="n">
+        <v>26156.50656960227</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" t="n">
+        <v>26</v>
+      </c>
+      <c r="B27" t="n">
+        <v>0.5925000011920929</v>
+      </c>
+      <c r="C27" t="n">
+        <v>25648.3427734375</v>
+      </c>
+      <c r="D27" t="n">
+        <v>0.8801136287775907</v>
+      </c>
+      <c r="E27" t="n">
+        <v>25644.70046164773</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" t="n">
+        <v>27</v>
+      </c>
+      <c r="B28" t="n">
+        <v>0.5649999976158142</v>
+      </c>
+      <c r="C28" t="n">
+        <v>25146.17578125</v>
+      </c>
+      <c r="D28" t="n">
+        <v>0.8860227248885415</v>
+      </c>
+      <c r="E28" t="n">
+        <v>25142.35333806818</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" t="n">
+        <v>28</v>
+      </c>
+      <c r="B29" t="n">
+        <v>0.5550000071525574</v>
+      </c>
+      <c r="C29" t="n">
+        <v>24652.873046875</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0.8838636387478221</v>
+      </c>
+      <c r="E29" t="n">
+        <v>24649.30770596591</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" t="n">
+        <v>29</v>
+      </c>
+      <c r="B30" t="n">
+        <v>0.5850000083446503</v>
+      </c>
+      <c r="C30" t="n">
+        <v>24168.5107421875</v>
+      </c>
+      <c r="D30" t="n">
+        <v>0.8921590826728127</v>
+      </c>
+      <c r="E30" t="n">
+        <v>24165.28480113636</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" t="n">
+        <v>30</v>
+      </c>
+      <c r="B31" t="n">
+        <v>0.5649999976158142</v>
+      </c>
+      <c r="C31" t="n">
+        <v>23693.625</v>
+      </c>
+      <c r="D31" t="n">
+        <v>0.8872727264057506</v>
+      </c>
+      <c r="E31" t="n">
+        <v>23690.21377840909</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" t="n">
+        <v>31</v>
+      </c>
+      <c r="B32" t="n">
+        <v>0.5550000071525574</v>
+      </c>
+      <c r="C32" t="n">
+        <v>23227.2890625</v>
+      </c>
+      <c r="D32" t="n">
+        <v>0.8882954499938271</v>
+      </c>
+      <c r="E32" t="n">
+        <v>23223.81356534091</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" t="n">
+        <v>32</v>
+      </c>
+      <c r="B33" t="n">
+        <v>0.5800000131130219</v>
+      </c>
+      <c r="C33" t="n">
+        <v>22769.1123046875</v>
+      </c>
+      <c r="D33" t="n">
+        <v>0.9020454504273154</v>
+      </c>
+      <c r="E33" t="n">
+        <v>22765.9453125</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" t="n">
+        <v>33</v>
+      </c>
+      <c r="B34" t="n">
+        <v>0.5800000131130219</v>
+      </c>
+      <c r="C34" t="n">
+        <v>22319.9736328125</v>
+      </c>
+      <c r="D34" t="n">
+        <v>0.9035227298736572</v>
+      </c>
+      <c r="E34" t="n">
+        <v>22316.72034801136</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" t="n">
+        <v>34</v>
+      </c>
+      <c r="B35" t="n">
+        <v>0.5424999892711639</v>
+      </c>
+      <c r="C35" t="n">
+        <v>21879.1904296875</v>
+      </c>
+      <c r="D35" t="n">
+        <v>0.8998863588679921</v>
+      </c>
+      <c r="E35" t="n">
+        <v>21875.77645596591</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" t="n">
+        <v>35</v>
+      </c>
+      <c r="B36" t="n">
+        <v>0.5275000035762787</v>
+      </c>
+      <c r="C36" t="n">
+        <v>21445.98046875</v>
+      </c>
+      <c r="D36" t="n">
+        <v>0.911022728139704</v>
+      </c>
+      <c r="E36" t="n">
+        <v>21442.880859375</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" t="n">
+        <v>36</v>
+      </c>
+      <c r="B37" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="C37" t="n">
+        <v>21020.935546875</v>
+      </c>
+      <c r="D37" t="n">
+        <v>0.8869318095120516</v>
+      </c>
+      <c r="E37" t="n">
+        <v>21018.17063210227</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" t="n">
+        <v>37</v>
+      </c>
+      <c r="B38" t="n">
+        <v>0.5775000154972076</v>
+      </c>
+      <c r="C38" t="n">
+        <v>20604.26171875</v>
+      </c>
+      <c r="D38" t="n">
+        <v>0.8915908986871893</v>
+      </c>
+      <c r="E38" t="n">
+        <v>20601.23259943182</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39" t="n">
+        <v>38</v>
+      </c>
+      <c r="B39" t="n">
+        <v>0.5475000143051147</v>
+      </c>
+      <c r="C39" t="n">
+        <v>20194.8271484375</v>
+      </c>
+      <c r="D39" t="n">
+        <v>0.9072727235880765</v>
+      </c>
+      <c r="E39" t="n">
+        <v>20191.95383522727</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40" t="n">
+        <v>39</v>
+      </c>
+      <c r="B40" t="n">
+        <v>0.5825000107288361</v>
+      </c>
+      <c r="C40" t="n">
+        <v>19793.0595703125</v>
+      </c>
+      <c r="D40" t="n">
+        <v>0.9205681898377158</v>
+      </c>
+      <c r="E40" t="n">
+        <v>19790.34428267046</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41" t="n">
+        <v>40</v>
+      </c>
+      <c r="B41" t="n">
+        <v>0.5524999797344208</v>
+      </c>
+      <c r="C41" t="n">
+        <v>19399.2587890625</v>
+      </c>
+      <c r="D41" t="n">
+        <v>0.9201136339794506</v>
+      </c>
+      <c r="E41" t="n">
+        <v>19396.21946022727</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42" t="n">
+        <v>41</v>
+      </c>
+      <c r="B42" t="n">
+        <v>0.570000022649765</v>
+      </c>
+      <c r="C42" t="n">
+        <v>19012.197265625</v>
+      </c>
+      <c r="D42" t="n">
+        <v>0.9351136359301481</v>
+      </c>
+      <c r="E42" t="n">
+        <v>19009.37020596591</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43" t="n">
+        <v>42</v>
+      </c>
+      <c r="B43" t="n">
+        <v>0.5750000178813934</v>
+      </c>
+      <c r="C43" t="n">
+        <v>18632.6982421875</v>
+      </c>
+      <c r="D43" t="n">
+        <v>0.9155681837688793</v>
+      </c>
+      <c r="E43" t="n">
+        <v>18629.84676846591</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="A44" t="n">
+        <v>43</v>
+      </c>
+      <c r="B44" t="n">
+        <v>0.6074999868869781</v>
+      </c>
+      <c r="C44" t="n">
+        <v>18260.0302734375</v>
+      </c>
+      <c r="D44" t="n">
+        <v>0.9132954640821977</v>
+      </c>
+      <c r="E44" t="n">
+        <v>18257.33806818182</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="A45" t="n">
+        <v>44</v>
+      </c>
+      <c r="B45" t="n">
+        <v>0.5374999940395355</v>
+      </c>
+      <c r="C45" t="n">
+        <v>17894.3974609375</v>
+      </c>
+      <c r="D45" t="n">
+        <v>0.9236363714391534</v>
+      </c>
+      <c r="E45" t="n">
+        <v>17891.74449573864</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
+      <c r="A46" t="n">
+        <v>45</v>
+      </c>
+      <c r="B46" t="n">
+        <v>0.5550000071525574</v>
+      </c>
+      <c r="C46" t="n">
+        <v>17535.771484375</v>
+      </c>
+      <c r="D46" t="n">
+        <v>0.907386373389851</v>
+      </c>
+      <c r="E46" t="n">
+        <v>17533.12926136364</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5">
+      <c r="A47" t="n">
+        <v>46</v>
+      </c>
+      <c r="B47" t="n">
+        <v>0.5649999976158142</v>
+      </c>
+      <c r="C47" t="n">
+        <v>17183.259765625</v>
+      </c>
+      <c r="D47" t="n">
+        <v>0.9317045374350115</v>
+      </c>
+      <c r="E47" t="n">
+        <v>17180.98863636364</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5">
+      <c r="A48" t="n">
+        <v>47</v>
+      </c>
+      <c r="B48" t="n">
+        <v>0.5525000095367432</v>
+      </c>
+      <c r="C48" t="n">
+        <v>16837.96875</v>
+      </c>
+      <c r="D48" t="n">
+        <v>0.9162500067190691</v>
+      </c>
+      <c r="E48" t="n">
+        <v>16835.583984375</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
+      <c r="A49" t="n">
+        <v>48</v>
+      </c>
+      <c r="B49" t="n">
+        <v>0.5324999988079071</v>
+      </c>
+      <c r="C49" t="n">
+        <v>16498.966796875</v>
+      </c>
+      <c r="D49" t="n">
+        <v>0.9267045476219871</v>
+      </c>
+      <c r="E49" t="n">
+        <v>16496.59499289773</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5">
+      <c r="A50" t="n">
+        <v>49</v>
+      </c>
+      <c r="B50" t="n">
+        <v>0.5099999904632568</v>
+      </c>
+      <c r="C50" t="n">
+        <v>16166.94580078125</v>
+      </c>
+      <c r="D50" t="n">
+        <v>0.9015909108248624</v>
+      </c>
+      <c r="E50" t="n">
+        <v>16164.08380681818</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5">
+      <c r="A51" t="n">
+        <v>50</v>
+      </c>
+      <c r="B51" t="n">
+        <v>0.5575000047683716</v>
+      </c>
+      <c r="C51" t="n">
+        <v>15840.0078125</v>
+      </c>
+      <c r="D51" t="n">
+        <v>0.941931816664609</v>
+      </c>
+      <c r="E51" t="n">
+        <v>15837.56285511364</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5">
+      <c r="A52" t="n">
+        <v>51</v>
+      </c>
+      <c r="B52" t="n">
+        <v>0.5524999797344208</v>
+      </c>
+      <c r="C52" t="n">
+        <v>15519.87451171875</v>
+      </c>
+      <c r="D52" t="n">
+        <v>0.9373863664540377</v>
+      </c>
+      <c r="E52" t="n">
+        <v>15517.31702769886</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5">
+      <c r="A53" t="n">
+        <v>52</v>
+      </c>
+      <c r="B53" t="n">
+        <v>0.5450000166893005</v>
+      </c>
+      <c r="C53" t="n">
+        <v>15205.4384765625</v>
+      </c>
+      <c r="D53" t="n">
+        <v>0.9295454512942921</v>
+      </c>
+      <c r="E53" t="n">
+        <v>15203.10653409091</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5">
+      <c r="A54" t="n">
+        <v>53</v>
+      </c>
+      <c r="B54" t="n">
+        <v>0.6124999821186066</v>
+      </c>
+      <c r="C54" t="n">
+        <v>14896.9873046875</v>
+      </c>
+      <c r="D54" t="n">
+        <v>0.8873863599517129</v>
+      </c>
+      <c r="E54" t="n">
+        <v>14894.90980113636</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5">
+      <c r="A55" t="n">
+        <v>54</v>
+      </c>
+      <c r="B55" t="n">
+        <v>0.5850000083446503</v>
+      </c>
+      <c r="C55" t="n">
+        <v>14594.384765625</v>
+      </c>
+      <c r="D55" t="n">
+        <v>0.9438636302947998</v>
+      </c>
+      <c r="E55" t="n">
+        <v>14592.21768465909</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5">
+      <c r="A56" t="n">
+        <v>55</v>
+      </c>
+      <c r="B56" t="n">
+        <v>0.570000022649765</v>
+      </c>
+      <c r="C56" t="n">
+        <v>14297.8173828125</v>
+      </c>
+      <c r="D56" t="n">
+        <v>0.942727267742157</v>
+      </c>
+      <c r="E56" t="n">
+        <v>14295.40704900568</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5">
+      <c r="A57" t="n">
+        <v>56</v>
+      </c>
+      <c r="B57" t="n">
+        <v>0.5999999940395355</v>
+      </c>
+      <c r="C57" t="n">
+        <v>14006.27880859375</v>
+      </c>
+      <c r="D57" t="n">
+        <v>0.9312500032511625</v>
+      </c>
+      <c r="E57" t="n">
+        <v>14004.21590909091</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5">
+      <c r="A58" t="n">
+        <v>57</v>
+      </c>
+      <c r="B58" t="n">
+        <v>0.5524999797344208</v>
+      </c>
+      <c r="C58" t="n">
+        <v>13720.54150390625</v>
+      </c>
+      <c r="D58" t="n">
+        <v>0.9280681881037626</v>
+      </c>
+      <c r="E58" t="n">
+        <v>13718.48810369318</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5">
+      <c r="A59" t="n">
+        <v>58</v>
+      </c>
+      <c r="B59" t="n">
+        <v>0.5875000059604645</v>
+      </c>
+      <c r="C59" t="n">
+        <v>13440.19482421875</v>
+      </c>
+      <c r="D59" t="n">
+        <v>0.9392045465382662</v>
+      </c>
+      <c r="E59" t="n">
+        <v>13438.14852627841</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5">
+      <c r="A60" t="n">
+        <v>59</v>
+      </c>
+      <c r="B60" t="n">
+        <v>0.5750000178813934</v>
+      </c>
+      <c r="C60" t="n">
+        <v>13165.19140625</v>
+      </c>
+      <c r="D60" t="n">
+        <v>0.9304545467550104</v>
+      </c>
+      <c r="E60" t="n">
+        <v>13163.13991477273</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5">
+      <c r="A61" t="n">
+        <v>60</v>
+      </c>
+      <c r="B61" t="n">
+        <v>0.550000011920929</v>
+      </c>
+      <c r="C61" t="n">
+        <v>12895.443359375</v>
+      </c>
+      <c r="D61" t="n">
+        <v>0.938295451077548</v>
+      </c>
+      <c r="E61" t="n">
+        <v>12893.31400923295</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5">
+      <c r="A62" t="n">
+        <v>61</v>
+      </c>
+      <c r="B62" t="n">
+        <v>0.5675000250339508</v>
+      </c>
+      <c r="C62" t="n">
+        <v>12630.6318359375</v>
+      </c>
+      <c r="D62" t="n">
+        <v>0.9309090917760675</v>
+      </c>
+      <c r="E62" t="n">
+        <v>12628.62144886364</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5">
+      <c r="A63" t="n">
+        <v>62</v>
+      </c>
+      <c r="B63" t="n">
+        <v>0.5349999964237213</v>
+      </c>
+      <c r="C63" t="n">
+        <v>12371.05712890625</v>
+      </c>
+      <c r="D63" t="n">
+        <v>0.9053409153764899</v>
+      </c>
+      <c r="E63" t="n">
+        <v>12369.01953125</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5">
+      <c r="A64" t="n">
+        <v>63</v>
+      </c>
+      <c r="B64" t="n">
+        <v>0.5625</v>
+      </c>
+      <c r="C64" t="n">
+        <v>12116.2392578125</v>
+      </c>
+      <c r="D64" t="n">
+        <v>0.887045448476618</v>
+      </c>
+      <c r="E64" t="n">
+        <v>12114.31977982955</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5">
+      <c r="A65" t="n">
+        <v>64</v>
+      </c>
+      <c r="B65" t="n">
+        <v>0.550000011920929</v>
+      </c>
+      <c r="C65" t="n">
+        <v>11865.96337890625</v>
+      </c>
+      <c r="D65" t="n">
+        <v>0.9303409132090482</v>
+      </c>
+      <c r="E65" t="n">
+        <v>11864.29057173295</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5">
+      <c r="A66" t="n">
+        <v>65</v>
+      </c>
+      <c r="B66" t="n">
+        <v>0.5775000154972076</v>
+      </c>
+      <c r="C66" t="n">
+        <v>11620.88134765625</v>
+      </c>
+      <c r="D66" t="n">
+        <v>0.9186363599517129</v>
+      </c>
+      <c r="E66" t="n">
+        <v>11619.18421519886</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5">
+      <c r="A67" t="n">
+        <v>66</v>
+      </c>
+      <c r="B67" t="n">
+        <v>0.5825000107288361</v>
+      </c>
+      <c r="C67" t="n">
+        <v>11380.296875</v>
+      </c>
+      <c r="D67" t="n">
+        <v>0.9346590909090909</v>
+      </c>
+      <c r="E67" t="n">
+        <v>11378.68377130682</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5">
+      <c r="A68" t="n">
+        <v>67</v>
+      </c>
+      <c r="B68" t="n">
+        <v>0.612500011920929</v>
+      </c>
+      <c r="C68" t="n">
+        <v>11144.302734375</v>
+      </c>
+      <c r="D68" t="n">
+        <v>0.9173863584345038</v>
+      </c>
+      <c r="E68" t="n">
+        <v>11142.83451704545</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5">
+      <c r="A69" t="n">
+        <v>68</v>
+      </c>
+      <c r="B69" t="n">
+        <v>0.5999999940395355</v>
+      </c>
+      <c r="C69" t="n">
+        <v>10913.12451171875</v>
+      </c>
+      <c r="D69" t="n">
+        <v>0.9102272716435519</v>
+      </c>
+      <c r="E69" t="n">
+        <v>10911.47336647727</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5">
+      <c r="A70" t="n">
+        <v>69</v>
+      </c>
+      <c r="B70" t="n">
+        <v>0.5900000035762787</v>
+      </c>
+      <c r="C70" t="n">
+        <v>10686.1396484375</v>
+      </c>
+      <c r="D70" t="n">
+        <v>0.9352272748947144</v>
+      </c>
+      <c r="E70" t="n">
+        <v>10684.47895951705</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5">
+      <c r="A71" t="n">
+        <v>70</v>
+      </c>
+      <c r="B71" t="n">
+        <v>0.5849999785423279</v>
+      </c>
+      <c r="C71" t="n">
+        <v>10463.63427734375</v>
+      </c>
+      <c r="D71" t="n">
+        <v>0.9164772683923895</v>
+      </c>
+      <c r="E71" t="n">
+        <v>10461.9296875</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5">
+      <c r="A72" t="n">
+        <v>71</v>
+      </c>
+      <c r="B72" t="n">
+        <v>0.6274999976158142</v>
+      </c>
+      <c r="C72" t="n">
+        <v>10245.07275390625</v>
+      </c>
+      <c r="D72" t="n">
+        <v>0.8977272781458768</v>
+      </c>
+      <c r="E72" t="n">
+        <v>10243.69247159091</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5">
+      <c r="A73" t="n">
+        <v>72</v>
+      </c>
+      <c r="B73" t="n">
+        <v>0.5649999976158142</v>
+      </c>
+      <c r="C73" t="n">
+        <v>10030.951171875</v>
+      </c>
+      <c r="D73" t="n">
+        <v>0.9124999967488375</v>
+      </c>
+      <c r="E73" t="n">
+        <v>10029.49183238636</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5">
+      <c r="A74" t="n">
+        <v>73</v>
+      </c>
+      <c r="B74" t="n">
+        <v>0.6100000143051147</v>
+      </c>
+      <c r="C74" t="n">
+        <v>9820.9033203125</v>
+      </c>
+      <c r="D74" t="n">
+        <v>0.9012500047683716</v>
+      </c>
+      <c r="E74" t="n">
+        <v>9819.49227627841</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5">
+      <c r="A75" t="n">
+        <v>74</v>
+      </c>
+      <c r="B75" t="n">
+        <v>0.5625</v>
+      </c>
+      <c r="C75" t="n">
+        <v>9615.08447265625</v>
+      </c>
+      <c r="D75" t="n">
+        <v>0.9036363634196195</v>
+      </c>
+      <c r="E75" t="n">
+        <v>9613.4853515625</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5">
+      <c r="A76" t="n">
+        <v>75</v>
+      </c>
+      <c r="B76" t="n">
+        <v>0.5225000083446503</v>
+      </c>
+      <c r="C76" t="n">
+        <v>9413.1162109375</v>
+      </c>
+      <c r="D76" t="n">
+        <v>0.8865908980369568</v>
+      </c>
+      <c r="E76" t="n">
+        <v>9411.534889914772</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5">
+      <c r="A77" t="n">
+        <v>76</v>
+      </c>
+      <c r="B77" t="n">
+        <v>0.5949999988079071</v>
+      </c>
+      <c r="C77" t="n">
+        <v>9214.9150390625</v>
+      </c>
+      <c r="D77" t="n">
+        <v>0.9170454577966169</v>
+      </c>
+      <c r="E77" t="n">
+        <v>9213.355735085228</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5">
+      <c r="A78" t="n">
+        <v>77</v>
+      </c>
+      <c r="B78" t="n">
+        <v>0.5225000083446503</v>
+      </c>
+      <c r="C78" t="n">
+        <v>9020.701171875</v>
+      </c>
+      <c r="D78" t="n">
+        <v>0.9031818183985624</v>
+      </c>
+      <c r="E78" t="n">
+        <v>9019.10360440341</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5">
+      <c r="A79" t="n">
+        <v>78</v>
+      </c>
+      <c r="B79" t="n">
+        <v>0.570000022649765</v>
+      </c>
+      <c r="C79" t="n">
+        <v>8830.06103515625</v>
+      </c>
+      <c r="D79" t="n">
+        <v>0.9090909090909091</v>
+      </c>
+      <c r="E79" t="n">
+        <v>8828.577769886364</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5">
+      <c r="A80" t="n">
+        <v>79</v>
+      </c>
+      <c r="B80" t="n">
+        <v>0.5475000143051147</v>
+      </c>
+      <c r="C80" t="n">
+        <v>8643.26025390625</v>
+      </c>
+      <c r="D80" t="n">
+        <v>0.923863643949682</v>
+      </c>
+      <c r="E80" t="n">
+        <v>8641.68368252841</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5">
+      <c r="A81" t="n">
+        <v>80</v>
+      </c>
+      <c r="B81" t="n">
+        <v>0.5774999856948853</v>
+      </c>
+      <c r="C81" t="n">
+        <v>8459.794921875</v>
+      </c>
+      <c r="D81" t="n">
+        <v>0.9043181809512052</v>
+      </c>
+      <c r="E81" t="n">
+        <v>8458.5185546875</v>
       </c>
     </row>
   </sheetData>
@@ -646,7 +1938,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C115"/>
+  <dimension ref="A1:C120"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -670,7 +1962,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.5676446051167965</v>
+        <v>0.5822441601779754</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -681,73 +1973,73 @@
         <v>0.008064516129032258</v>
       </c>
       <c r="B3" t="n">
-        <v>0.5676446051167965</v>
+        <v>0.5822441601779754</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>0.008620689655172414</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="n">
-        <v>0.03225806451612903</v>
+        <v>0.008064516129032258</v>
       </c>
       <c r="B4" t="n">
-        <v>0.5676446051167965</v>
+        <v>0.5822441601779754</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>0.01724137931034483</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="n">
-        <v>0.03225806451612903</v>
+        <v>0.01612903225806452</v>
       </c>
       <c r="B5" t="n">
-        <v>0.5676446051167965</v>
+        <v>0.5822441601779754</v>
       </c>
       <c r="C5" t="n">
-        <v>0.04310344827586207</v>
+        <v>0.02586206896551724</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="n">
-        <v>0.04838709677419355</v>
+        <v>0.01612903225806452</v>
       </c>
       <c r="B6" t="n">
-        <v>0.5676446051167965</v>
+        <v>0.5822441601779754</v>
       </c>
       <c r="C6" t="n">
-        <v>0.04310344827586207</v>
+        <v>0.0603448275862069</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="n">
-        <v>0.04838709677419355</v>
+        <v>0.03225806451612903</v>
       </c>
       <c r="B7" t="n">
-        <v>0.5676446051167965</v>
+        <v>0.5822441601779754</v>
       </c>
       <c r="C7" t="n">
-        <v>0.07758620689655173</v>
+        <v>0.0603448275862069</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="n">
-        <v>0.0564516129032258</v>
+        <v>0.03225806451612903</v>
       </c>
       <c r="B8" t="n">
-        <v>0.5676446051167965</v>
+        <v>0.5822441601779754</v>
       </c>
       <c r="C8" t="n">
-        <v>0.07758620689655173</v>
+        <v>0.09482758620689655</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="n">
-        <v>0.0564516129032258</v>
+        <v>0.04032258064516129</v>
       </c>
       <c r="B9" t="n">
-        <v>0.5676446051167965</v>
+        <v>0.5822441601779754</v>
       </c>
       <c r="C9" t="n">
         <v>0.09482758620689655</v>
@@ -755,46 +2047,46 @@
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="n">
-        <v>0.06451612903225806</v>
+        <v>0.04032258064516129</v>
       </c>
       <c r="B10" t="n">
-        <v>0.5676446051167965</v>
+        <v>0.5822441601779754</v>
       </c>
       <c r="C10" t="n">
-        <v>0.09482758620689655</v>
+        <v>0.1379310344827586</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="n">
-        <v>0.06451612903225806</v>
+        <v>0.04838709677419355</v>
       </c>
       <c r="B11" t="n">
-        <v>0.5676446051167965</v>
+        <v>0.5822441601779754</v>
       </c>
       <c r="C11" t="n">
-        <v>0.146551724137931</v>
+        <v>0.1379310344827586</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="n">
-        <v>0.07258064516129033</v>
+        <v>0.04838709677419355</v>
       </c>
       <c r="B12" t="n">
-        <v>0.5676446051167965</v>
+        <v>0.5822441601779754</v>
       </c>
       <c r="C12" t="n">
-        <v>0.146551724137931</v>
+        <v>0.1896551724137931</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="n">
-        <v>0.07258064516129033</v>
+        <v>0.08064516129032258</v>
       </c>
       <c r="B13" t="n">
-        <v>0.5676446051167965</v>
+        <v>0.5822441601779754</v>
       </c>
       <c r="C13" t="n">
-        <v>0.1551724137931035</v>
+        <v>0.1896551724137931</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -802,21 +2094,21 @@
         <v>0.08064516129032258</v>
       </c>
       <c r="B14" t="n">
-        <v>0.5676446051167965</v>
+        <v>0.5822441601779754</v>
       </c>
       <c r="C14" t="n">
-        <v>0.1551724137931035</v>
+        <v>0.1982758620689655</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="n">
-        <v>0.08064516129032258</v>
+        <v>0.1048387096774194</v>
       </c>
       <c r="B15" t="n">
-        <v>0.5676446051167965</v>
+        <v>0.5822441601779754</v>
       </c>
       <c r="C15" t="n">
-        <v>0.1896551724137931</v>
+        <v>0.1982758620689655</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -824,32 +2116,32 @@
         <v>0.1048387096774194</v>
       </c>
       <c r="B16" t="n">
-        <v>0.5676446051167965</v>
+        <v>0.5822441601779754</v>
       </c>
       <c r="C16" t="n">
-        <v>0.1896551724137931</v>
+        <v>0.2155172413793103</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="n">
-        <v>0.1048387096774194</v>
+        <v>0.1129032258064516</v>
       </c>
       <c r="B17" t="n">
-        <v>0.5676446051167965</v>
+        <v>0.5822441601779754</v>
       </c>
       <c r="C17" t="n">
-        <v>0.2327586206896552</v>
+        <v>0.2155172413793103</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="n">
-        <v>0.1209677419354839</v>
+        <v>0.1129032258064516</v>
       </c>
       <c r="B18" t="n">
-        <v>0.5676446051167965</v>
+        <v>0.5822441601779754</v>
       </c>
       <c r="C18" t="n">
-        <v>0.2327586206896552</v>
+        <v>0.2241379310344828</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -857,153 +2149,153 @@
         <v>0.1209677419354839</v>
       </c>
       <c r="B19" t="n">
-        <v>0.5676446051167965</v>
+        <v>0.5822441601779754</v>
       </c>
       <c r="C19" t="n">
-        <v>0.2672413793103448</v>
+        <v>0.2241379310344828</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="n">
-        <v>0.1532258064516129</v>
+        <v>0.1209677419354839</v>
       </c>
       <c r="B20" t="n">
-        <v>0.5676446051167965</v>
+        <v>0.5822441601779754</v>
       </c>
       <c r="C20" t="n">
-        <v>0.2672413793103448</v>
+        <v>0.2586206896551724</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="n">
-        <v>0.1532258064516129</v>
+        <v>0.1290322580645161</v>
       </c>
       <c r="B21" t="n">
-        <v>0.5676446051167965</v>
+        <v>0.5822441601779754</v>
       </c>
       <c r="C21" t="n">
-        <v>0.2758620689655172</v>
+        <v>0.2586206896551724</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="n">
-        <v>0.1693548387096774</v>
+        <v>0.1290322580645161</v>
       </c>
       <c r="B22" t="n">
-        <v>0.5676446051167965</v>
+        <v>0.5822441601779754</v>
       </c>
       <c r="C22" t="n">
-        <v>0.2758620689655172</v>
+        <v>0.2672413793103448</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="n">
-        <v>0.1693548387096774</v>
+        <v>0.1370967741935484</v>
       </c>
       <c r="B23" t="n">
-        <v>0.5676446051167965</v>
+        <v>0.5822441601779754</v>
       </c>
       <c r="C23" t="n">
-        <v>0.2844827586206897</v>
+        <v>0.2672413793103448</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="n">
-        <v>0.1774193548387097</v>
+        <v>0.1370967741935484</v>
       </c>
       <c r="B24" t="n">
-        <v>0.5676446051167965</v>
+        <v>0.5822441601779754</v>
       </c>
       <c r="C24" t="n">
-        <v>0.2844827586206897</v>
+        <v>0.2758620689655172</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" t="n">
-        <v>0.1774193548387097</v>
+        <v>0.1451612903225807</v>
       </c>
       <c r="B25" t="n">
-        <v>0.5676446051167965</v>
+        <v>0.5822441601779754</v>
       </c>
       <c r="C25" t="n">
-        <v>0.3103448275862069</v>
+        <v>0.2758620689655172</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" t="n">
-        <v>0.1854838709677419</v>
+        <v>0.1451612903225807</v>
       </c>
       <c r="B26" t="n">
-        <v>0.5676446051167965</v>
+        <v>0.5822441601779754</v>
       </c>
       <c r="C26" t="n">
-        <v>0.3103448275862069</v>
+        <v>0.293103448275862</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" t="n">
-        <v>0.1854838709677419</v>
+        <v>0.1532258064516129</v>
       </c>
       <c r="B27" t="n">
-        <v>0.5676446051167965</v>
+        <v>0.5822441601779754</v>
       </c>
       <c r="C27" t="n">
-        <v>0.3275862068965517</v>
+        <v>0.293103448275862</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" t="n">
-        <v>0.2016129032258064</v>
+        <v>0.1532258064516129</v>
       </c>
       <c r="B28" t="n">
-        <v>0.5676446051167965</v>
+        <v>0.5822441601779754</v>
       </c>
       <c r="C28" t="n">
-        <v>0.3275862068965517</v>
+        <v>0.3189655172413793</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" t="n">
-        <v>0.2016129032258064</v>
+        <v>0.1854838709677419</v>
       </c>
       <c r="B29" t="n">
-        <v>0.5676446051167965</v>
+        <v>0.5822441601779754</v>
       </c>
       <c r="C29" t="n">
-        <v>0.3362068965517241</v>
+        <v>0.3189655172413793</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" t="n">
-        <v>0.217741935483871</v>
+        <v>0.1854838709677419</v>
       </c>
       <c r="B30" t="n">
-        <v>0.5676446051167965</v>
+        <v>0.5822441601779754</v>
       </c>
       <c r="C30" t="n">
-        <v>0.3362068965517241</v>
+        <v>0.3275862068965517</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" t="n">
-        <v>0.217741935483871</v>
+        <v>0.2016129032258064</v>
       </c>
       <c r="B31" t="n">
-        <v>0.5676446051167965</v>
+        <v>0.5822441601779754</v>
       </c>
       <c r="C31" t="n">
-        <v>0.3448275862068966</v>
+        <v>0.3275862068965517</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" t="n">
-        <v>0.2419354838709677</v>
+        <v>0.2016129032258064</v>
       </c>
       <c r="B32" t="n">
-        <v>0.5676446051167965</v>
+        <v>0.5822441601779754</v>
       </c>
       <c r="C32" t="n">
-        <v>0.3448275862068966</v>
+        <v>0.3362068965517241</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -1011,18 +2303,18 @@
         <v>0.2419354838709677</v>
       </c>
       <c r="B33" t="n">
-        <v>0.5676446051167965</v>
+        <v>0.5822441601779754</v>
       </c>
       <c r="C33" t="n">
-        <v>0.353448275862069</v>
+        <v>0.3362068965517241</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" t="n">
-        <v>0.2580645161290323</v>
+        <v>0.2419354838709677</v>
       </c>
       <c r="B34" t="n">
-        <v>0.5676446051167965</v>
+        <v>0.5822441601779754</v>
       </c>
       <c r="C34" t="n">
         <v>0.353448275862069</v>
@@ -1030,90 +2322,90 @@
     </row>
     <row r="35" spans="1:3">
       <c r="A35" t="n">
-        <v>0.2580645161290323</v>
+        <v>0.25</v>
       </c>
       <c r="B35" t="n">
-        <v>0.5676446051167965</v>
+        <v>0.5822441601779754</v>
       </c>
       <c r="C35" t="n">
-        <v>0.3793103448275862</v>
+        <v>0.353448275862069</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" t="n">
-        <v>0.2822580645161291</v>
+        <v>0.25</v>
       </c>
       <c r="B36" t="n">
-        <v>0.5676446051167965</v>
+        <v>0.5822441601779754</v>
       </c>
       <c r="C36" t="n">
-        <v>0.3793103448275862</v>
+        <v>0.3620689655172414</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" t="n">
-        <v>0.2822580645161291</v>
+        <v>0.2580645161290323</v>
       </c>
       <c r="B37" t="n">
-        <v>0.5676446051167965</v>
+        <v>0.5822441601779754</v>
       </c>
       <c r="C37" t="n">
-        <v>0.3879310344827586</v>
+        <v>0.3620689655172414</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" t="n">
-        <v>0.2983870967741936</v>
+        <v>0.2580645161290323</v>
       </c>
       <c r="B38" t="n">
-        <v>0.5676446051167965</v>
+        <v>0.5822441601779754</v>
       </c>
       <c r="C38" t="n">
-        <v>0.3879310344827586</v>
+        <v>0.3706896551724138</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" t="n">
-        <v>0.2983870967741936</v>
+        <v>0.2661290322580645</v>
       </c>
       <c r="B39" t="n">
-        <v>0.5676446051167965</v>
+        <v>0.5822441601779754</v>
       </c>
       <c r="C39" t="n">
-        <v>0.4310344827586207</v>
+        <v>0.3706896551724138</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" t="n">
-        <v>0.3145161290322581</v>
+        <v>0.2661290322580645</v>
       </c>
       <c r="B40" t="n">
-        <v>0.5676446051167965</v>
+        <v>0.5822441601779754</v>
       </c>
       <c r="C40" t="n">
-        <v>0.4310344827586207</v>
+        <v>0.3793103448275862</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" t="n">
-        <v>0.3145161290322581</v>
+        <v>0.2983870967741936</v>
       </c>
       <c r="B41" t="n">
-        <v>0.5676446051167965</v>
+        <v>0.5822441601779754</v>
       </c>
       <c r="C41" t="n">
-        <v>0.4482758620689655</v>
+        <v>0.3793103448275862</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" t="n">
-        <v>0.3225806451612903</v>
+        <v>0.2983870967741936</v>
       </c>
       <c r="B42" t="n">
-        <v>0.5676446051167965</v>
+        <v>0.5822441601779754</v>
       </c>
       <c r="C42" t="n">
-        <v>0.4482758620689655</v>
+        <v>0.4224137931034483</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -1121,304 +2413,304 @@
         <v>0.3225806451612903</v>
       </c>
       <c r="B43" t="n">
-        <v>0.5676446051167965</v>
+        <v>0.5822441601779754</v>
       </c>
       <c r="C43" t="n">
-        <v>0.4655172413793103</v>
+        <v>0.4224137931034483</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" t="n">
-        <v>0.3548387096774194</v>
+        <v>0.3225806451612903</v>
       </c>
       <c r="B44" t="n">
-        <v>0.5676446051167965</v>
+        <v>0.5822441601779754</v>
       </c>
       <c r="C44" t="n">
-        <v>0.4655172413793103</v>
+        <v>0.4396551724137931</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45" t="n">
-        <v>0.3548387096774194</v>
+        <v>0.3306451612903226</v>
       </c>
       <c r="B45" t="n">
-        <v>0.5676446051167965</v>
+        <v>0.5822441601779754</v>
       </c>
       <c r="C45" t="n">
-        <v>0.4827586206896552</v>
+        <v>0.4396551724137931</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46" t="n">
-        <v>0.3790322580645161</v>
+        <v>0.3306451612903226</v>
       </c>
       <c r="B46" t="n">
-        <v>0.5676446051167965</v>
+        <v>0.5822441601779754</v>
       </c>
       <c r="C46" t="n">
-        <v>0.4827586206896552</v>
+        <v>0.456896551724138</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47" t="n">
-        <v>0.3790322580645161</v>
+        <v>0.3467741935483871</v>
       </c>
       <c r="B47" t="n">
-        <v>0.5676446051167965</v>
+        <v>0.5822441601779754</v>
       </c>
       <c r="C47" t="n">
-        <v>0.4913793103448276</v>
+        <v>0.456896551724138</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="A48" t="n">
-        <v>0.3870967741935484</v>
+        <v>0.3467741935483871</v>
       </c>
       <c r="B48" t="n">
-        <v>0.5676446051167965</v>
+        <v>0.5822441601779754</v>
       </c>
       <c r="C48" t="n">
-        <v>0.4913793103448276</v>
+        <v>0.4655172413793103</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49" t="n">
-        <v>0.3870967741935484</v>
+        <v>0.3629032258064516</v>
       </c>
       <c r="B49" t="n">
-        <v>0.5676446051167965</v>
+        <v>0.5822441601779754</v>
       </c>
       <c r="C49" t="n">
-        <v>0.5</v>
+        <v>0.4655172413793103</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50" t="n">
-        <v>0.4193548387096774</v>
+        <v>0.3629032258064516</v>
       </c>
       <c r="B50" t="n">
-        <v>0.5676446051167965</v>
+        <v>0.5822441601779754</v>
       </c>
       <c r="C50" t="n">
-        <v>0.5</v>
+        <v>0.4741379310344828</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51" t="n">
-        <v>0.4193548387096774</v>
+        <v>0.3951612903225806</v>
       </c>
       <c r="B51" t="n">
-        <v>0.5676446051167965</v>
+        <v>0.5822441601779754</v>
       </c>
       <c r="C51" t="n">
-        <v>0.5258620689655172</v>
+        <v>0.4741379310344828</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52" t="n">
-        <v>0.4435483870967742</v>
+        <v>0.3951612903225806</v>
       </c>
       <c r="B52" t="n">
-        <v>0.5676446051167965</v>
+        <v>0.5822441601779754</v>
       </c>
       <c r="C52" t="n">
-        <v>0.5258620689655172</v>
+        <v>0.4913793103448276</v>
       </c>
     </row>
     <row r="53" spans="1:3">
       <c r="A53" t="n">
-        <v>0.4435483870967742</v>
+        <v>0.4112903225806452</v>
       </c>
       <c r="B53" t="n">
-        <v>0.5676446051167965</v>
+        <v>0.5822441601779754</v>
       </c>
       <c r="C53" t="n">
-        <v>0.5431034482758621</v>
+        <v>0.4913793103448276</v>
       </c>
     </row>
     <row r="54" spans="1:3">
       <c r="A54" t="n">
-        <v>0.4677419354838709</v>
+        <v>0.4112903225806452</v>
       </c>
       <c r="B54" t="n">
-        <v>0.5676446051167965</v>
+        <v>0.5822441601779754</v>
       </c>
       <c r="C54" t="n">
-        <v>0.5431034482758621</v>
+        <v>0.5172413793103449</v>
       </c>
     </row>
     <row r="55" spans="1:3">
       <c r="A55" t="n">
-        <v>0.4677419354838709</v>
+        <v>0.4193548387096774</v>
       </c>
       <c r="B55" t="n">
-        <v>0.5676446051167965</v>
+        <v>0.5822441601779754</v>
       </c>
       <c r="C55" t="n">
-        <v>0.5775862068965517</v>
+        <v>0.5172413793103449</v>
       </c>
     </row>
     <row r="56" spans="1:3">
       <c r="A56" t="n">
-        <v>0.4758064516129032</v>
+        <v>0.4193548387096774</v>
       </c>
       <c r="B56" t="n">
-        <v>0.5676446051167965</v>
+        <v>0.5822441601779754</v>
       </c>
       <c r="C56" t="n">
-        <v>0.5775862068965517</v>
+        <v>0.5431034482758621</v>
       </c>
     </row>
     <row r="57" spans="1:3">
       <c r="A57" t="n">
-        <v>0.4758064516129032</v>
+        <v>0.4516129032258064</v>
       </c>
       <c r="B57" t="n">
-        <v>0.5676446051167965</v>
+        <v>0.5822441601779754</v>
       </c>
       <c r="C57" t="n">
-        <v>0.5862068965517241</v>
+        <v>0.5431034482758621</v>
       </c>
     </row>
     <row r="58" spans="1:3">
       <c r="A58" t="n">
-        <v>0.5</v>
+        <v>0.4516129032258064</v>
       </c>
       <c r="B58" t="n">
-        <v>0.5676446051167965</v>
+        <v>0.5822441601779754</v>
       </c>
       <c r="C58" t="n">
-        <v>0.5862068965517241</v>
+        <v>0.5517241379310345</v>
       </c>
     </row>
     <row r="59" spans="1:3">
       <c r="A59" t="n">
-        <v>0.5</v>
+        <v>0.4677419354838709</v>
       </c>
       <c r="B59" t="n">
-        <v>0.5676446051167965</v>
+        <v>0.5822441601779754</v>
       </c>
       <c r="C59" t="n">
-        <v>0.5948275862068966</v>
+        <v>0.5517241379310345</v>
       </c>
     </row>
     <row r="60" spans="1:3">
       <c r="A60" t="n">
-        <v>0.532258064516129</v>
+        <v>0.4677419354838709</v>
       </c>
       <c r="B60" t="n">
-        <v>0.5676446051167965</v>
+        <v>0.5822441601779754</v>
       </c>
       <c r="C60" t="n">
-        <v>0.5948275862068966</v>
+        <v>0.5689655172413793</v>
       </c>
     </row>
     <row r="61" spans="1:3">
       <c r="A61" t="n">
-        <v>0.532258064516129</v>
+        <v>0.4758064516129032</v>
       </c>
       <c r="B61" t="n">
-        <v>0.5676446051167965</v>
+        <v>0.5822441601779754</v>
       </c>
       <c r="C61" t="n">
-        <v>0.603448275862069</v>
+        <v>0.5689655172413793</v>
       </c>
     </row>
     <row r="62" spans="1:3">
       <c r="A62" t="n">
-        <v>0.5564516129032258</v>
+        <v>0.4758064516129032</v>
       </c>
       <c r="B62" t="n">
-        <v>0.5676446051167965</v>
+        <v>0.5822441601779754</v>
       </c>
       <c r="C62" t="n">
-        <v>0.603448275862069</v>
+        <v>0.5775862068965517</v>
       </c>
     </row>
     <row r="63" spans="1:3">
       <c r="A63" t="n">
-        <v>0.5564516129032258</v>
+        <v>0.4838709677419355</v>
       </c>
       <c r="B63" t="n">
-        <v>0.5676446051167965</v>
+        <v>0.5822441601779754</v>
       </c>
       <c r="C63" t="n">
-        <v>0.6120689655172413</v>
+        <v>0.5775862068965517</v>
       </c>
     </row>
     <row r="64" spans="1:3">
       <c r="A64" t="n">
-        <v>0.5806451612903226</v>
+        <v>0.4838709677419355</v>
       </c>
       <c r="B64" t="n">
-        <v>0.5676446051167965</v>
+        <v>0.5822441601779754</v>
       </c>
       <c r="C64" t="n">
-        <v>0.6120689655172413</v>
+        <v>0.5862068965517241</v>
       </c>
     </row>
     <row r="65" spans="1:3">
       <c r="A65" t="n">
-        <v>0.5806451612903226</v>
+        <v>0.4919354838709677</v>
       </c>
       <c r="B65" t="n">
-        <v>0.5676446051167965</v>
+        <v>0.5822441601779754</v>
       </c>
       <c r="C65" t="n">
-        <v>0.6293103448275862</v>
+        <v>0.5862068965517241</v>
       </c>
     </row>
     <row r="66" spans="1:3">
       <c r="A66" t="n">
-        <v>0.5887096774193549</v>
+        <v>0.4919354838709677</v>
       </c>
       <c r="B66" t="n">
-        <v>0.5676446051167965</v>
+        <v>0.5822441601779754</v>
       </c>
       <c r="C66" t="n">
-        <v>0.6293103448275862</v>
+        <v>0.6206896551724138</v>
       </c>
     </row>
     <row r="67" spans="1:3">
       <c r="A67" t="n">
-        <v>0.5887096774193549</v>
+        <v>0.5080645161290323</v>
       </c>
       <c r="B67" t="n">
-        <v>0.5676446051167965</v>
+        <v>0.5822441601779754</v>
       </c>
       <c r="C67" t="n">
-        <v>0.6379310344827587</v>
+        <v>0.6206896551724138</v>
       </c>
     </row>
     <row r="68" spans="1:3">
       <c r="A68" t="n">
-        <v>0.6209677419354839</v>
+        <v>0.5080645161290323</v>
       </c>
       <c r="B68" t="n">
-        <v>0.5676446051167965</v>
+        <v>0.5822441601779754</v>
       </c>
       <c r="C68" t="n">
-        <v>0.6379310344827587</v>
+        <v>0.646551724137931</v>
       </c>
     </row>
     <row r="69" spans="1:3">
       <c r="A69" t="n">
-        <v>0.6209677419354839</v>
+        <v>0.5161290322580645</v>
       </c>
       <c r="B69" t="n">
-        <v>0.5676446051167965</v>
+        <v>0.5822441601779754</v>
       </c>
       <c r="C69" t="n">
-        <v>0.6637931034482759</v>
+        <v>0.646551724137931</v>
       </c>
     </row>
     <row r="70" spans="1:3">
       <c r="A70" t="n">
-        <v>0.6370967741935484</v>
+        <v>0.5161290322580645</v>
       </c>
       <c r="B70" t="n">
-        <v>0.5676446051167965</v>
+        <v>0.5822441601779754</v>
       </c>
       <c r="C70" t="n">
         <v>0.6637931034482759</v>
@@ -1426,266 +2718,266 @@
     </row>
     <row r="71" spans="1:3">
       <c r="A71" t="n">
-        <v>0.6370967741935484</v>
+        <v>0.5241935483870968</v>
       </c>
       <c r="B71" t="n">
-        <v>0.5676446051167965</v>
+        <v>0.5822441601779754</v>
       </c>
       <c r="C71" t="n">
-        <v>0.6896551724137931</v>
+        <v>0.6637931034482759</v>
       </c>
     </row>
     <row r="72" spans="1:3">
       <c r="A72" t="n">
-        <v>0.6612903225806451</v>
+        <v>0.5241935483870968</v>
       </c>
       <c r="B72" t="n">
-        <v>0.5676446051167965</v>
+        <v>0.5822441601779754</v>
       </c>
       <c r="C72" t="n">
-        <v>0.6896551724137931</v>
+        <v>0.6724137931034483</v>
       </c>
     </row>
     <row r="73" spans="1:3">
       <c r="A73" t="n">
-        <v>0.6612903225806451</v>
+        <v>0.5806451612903226</v>
       </c>
       <c r="B73" t="n">
-        <v>0.5676446051167965</v>
+        <v>0.5822441601779754</v>
       </c>
       <c r="C73" t="n">
-        <v>0.7068965517241379</v>
+        <v>0.6724137931034483</v>
       </c>
     </row>
     <row r="74" spans="1:3">
       <c r="A74" t="n">
-        <v>0.6693548387096774</v>
+        <v>0.5806451612903226</v>
       </c>
       <c r="B74" t="n">
-        <v>0.5676446051167965</v>
+        <v>0.5822441601779754</v>
       </c>
       <c r="C74" t="n">
-        <v>0.7068965517241379</v>
+        <v>0.6896551724137931</v>
       </c>
     </row>
     <row r="75" spans="1:3">
       <c r="A75" t="n">
-        <v>0.6693548387096774</v>
+        <v>0.6048387096774194</v>
       </c>
       <c r="B75" t="n">
-        <v>0.5676446051167965</v>
+        <v>0.5822441601779754</v>
       </c>
       <c r="C75" t="n">
-        <v>0.7413793103448276</v>
+        <v>0.6896551724137931</v>
       </c>
     </row>
     <row r="76" spans="1:3">
       <c r="A76" t="n">
-        <v>0.6854838709677419</v>
+        <v>0.6048387096774194</v>
       </c>
       <c r="B76" t="n">
-        <v>0.5676446051167965</v>
+        <v>0.5822441601779754</v>
       </c>
       <c r="C76" t="n">
-        <v>0.7413793103448276</v>
+        <v>0.6982758620689655</v>
       </c>
     </row>
     <row r="77" spans="1:3">
       <c r="A77" t="n">
-        <v>0.6854838709677419</v>
+        <v>0.6209677419354839</v>
       </c>
       <c r="B77" t="n">
-        <v>0.5676446051167965</v>
+        <v>0.5822441601779754</v>
       </c>
       <c r="C77" t="n">
-        <v>0.7586206896551724</v>
+        <v>0.6982758620689655</v>
       </c>
     </row>
     <row r="78" spans="1:3">
       <c r="A78" t="n">
-        <v>0.7096774193548387</v>
+        <v>0.6209677419354839</v>
       </c>
       <c r="B78" t="n">
-        <v>0.5676446051167965</v>
+        <v>0.5822441601779754</v>
       </c>
       <c r="C78" t="n">
-        <v>0.7586206896551724</v>
+        <v>0.7068965517241379</v>
       </c>
     </row>
     <row r="79" spans="1:3">
       <c r="A79" t="n">
-        <v>0.7096774193548387</v>
+        <v>0.6290322580645161</v>
       </c>
       <c r="B79" t="n">
-        <v>0.5676446051167965</v>
+        <v>0.5822441601779754</v>
       </c>
       <c r="C79" t="n">
-        <v>0.7672413793103449</v>
+        <v>0.7068965517241379</v>
       </c>
     </row>
     <row r="80" spans="1:3">
       <c r="A80" t="n">
-        <v>0.717741935483871</v>
+        <v>0.6290322580645161</v>
       </c>
       <c r="B80" t="n">
-        <v>0.5676446051167965</v>
+        <v>0.5822441601779754</v>
       </c>
       <c r="C80" t="n">
-        <v>0.7672413793103449</v>
+        <v>0.7155172413793104</v>
       </c>
     </row>
     <row r="81" spans="1:3">
       <c r="A81" t="n">
-        <v>0.717741935483871</v>
+        <v>0.6451612903225806</v>
       </c>
       <c r="B81" t="n">
-        <v>0.5676446051167965</v>
+        <v>0.5822441601779754</v>
       </c>
       <c r="C81" t="n">
-        <v>0.7844827586206896</v>
+        <v>0.7155172413793104</v>
       </c>
     </row>
     <row r="82" spans="1:3">
       <c r="A82" t="n">
-        <v>0.7258064516129032</v>
+        <v>0.6451612903225806</v>
       </c>
       <c r="B82" t="n">
-        <v>0.5676446051167965</v>
+        <v>0.5822441601779754</v>
       </c>
       <c r="C82" t="n">
-        <v>0.7844827586206896</v>
+        <v>0.7413793103448276</v>
       </c>
     </row>
     <row r="83" spans="1:3">
       <c r="A83" t="n">
-        <v>0.7258064516129032</v>
+        <v>0.6532258064516129</v>
       </c>
       <c r="B83" t="n">
-        <v>0.5676446051167965</v>
+        <v>0.5822441601779754</v>
       </c>
       <c r="C83" t="n">
-        <v>0.8017241379310345</v>
+        <v>0.7413793103448276</v>
       </c>
     </row>
     <row r="84" spans="1:3">
       <c r="A84" t="n">
-        <v>0.7419354838709677</v>
+        <v>0.6532258064516129</v>
       </c>
       <c r="B84" t="n">
-        <v>0.5676446051167965</v>
+        <v>0.5822441601779754</v>
       </c>
       <c r="C84" t="n">
-        <v>0.8017241379310345</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="85" spans="1:3">
       <c r="A85" t="n">
-        <v>0.7419354838709677</v>
+        <v>0.6612903225806451</v>
       </c>
       <c r="B85" t="n">
-        <v>0.5676446051167965</v>
+        <v>0.5822441601779754</v>
       </c>
       <c r="C85" t="n">
-        <v>0.8103448275862069</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="86" spans="1:3">
       <c r="A86" t="n">
-        <v>0.75</v>
+        <v>0.6612903225806451</v>
       </c>
       <c r="B86" t="n">
-        <v>0.5676446051167965</v>
+        <v>0.5822441601779754</v>
       </c>
       <c r="C86" t="n">
-        <v>0.8103448275862069</v>
+        <v>0.7758620689655172</v>
       </c>
     </row>
     <row r="87" spans="1:3">
       <c r="A87" t="n">
-        <v>0.75</v>
+        <v>0.6693548387096774</v>
       </c>
       <c r="B87" t="n">
-        <v>0.5676446051167965</v>
+        <v>0.5822441601779754</v>
       </c>
       <c r="C87" t="n">
-        <v>0.8189655172413793</v>
+        <v>0.7758620689655172</v>
       </c>
     </row>
     <row r="88" spans="1:3">
       <c r="A88" t="n">
-        <v>0.7661290322580645</v>
+        <v>0.6693548387096774</v>
       </c>
       <c r="B88" t="n">
-        <v>0.5676446051167965</v>
+        <v>0.5822441601779754</v>
       </c>
       <c r="C88" t="n">
-        <v>0.8189655172413793</v>
+        <v>0.7844827586206896</v>
       </c>
     </row>
     <row r="89" spans="1:3">
       <c r="A89" t="n">
-        <v>0.7661290322580645</v>
+        <v>0.6774193548387096</v>
       </c>
       <c r="B89" t="n">
-        <v>0.5676446051167965</v>
+        <v>0.5822441601779754</v>
       </c>
       <c r="C89" t="n">
-        <v>0.8275862068965517</v>
+        <v>0.7844827586206896</v>
       </c>
     </row>
     <row r="90" spans="1:3">
       <c r="A90" t="n">
-        <v>0.782258064516129</v>
+        <v>0.6774193548387096</v>
       </c>
       <c r="B90" t="n">
-        <v>0.5676446051167965</v>
+        <v>0.5822441601779754</v>
       </c>
       <c r="C90" t="n">
-        <v>0.8275862068965517</v>
+        <v>0.8017241379310345</v>
       </c>
     </row>
     <row r="91" spans="1:3">
       <c r="A91" t="n">
-        <v>0.782258064516129</v>
+        <v>0.7016129032258065</v>
       </c>
       <c r="B91" t="n">
-        <v>0.5676446051167965</v>
+        <v>0.5822441601779754</v>
       </c>
       <c r="C91" t="n">
-        <v>0.8362068965517241</v>
+        <v>0.8017241379310345</v>
       </c>
     </row>
     <row r="92" spans="1:3">
       <c r="A92" t="n">
-        <v>0.7983870967741935</v>
+        <v>0.7016129032258065</v>
       </c>
       <c r="B92" t="n">
-        <v>0.5676446051167965</v>
+        <v>0.5822441601779754</v>
       </c>
       <c r="C92" t="n">
-        <v>0.8362068965517241</v>
+        <v>0.8103448275862069</v>
       </c>
     </row>
     <row r="93" spans="1:3">
       <c r="A93" t="n">
-        <v>0.7983870967741935</v>
+        <v>0.8064516129032258</v>
       </c>
       <c r="B93" t="n">
-        <v>0.5676446051167965</v>
+        <v>0.5822441601779754</v>
       </c>
       <c r="C93" t="n">
-        <v>0.8448275862068966</v>
+        <v>0.8103448275862069</v>
       </c>
     </row>
     <row r="94" spans="1:3">
       <c r="A94" t="n">
-        <v>0.8145161290322581</v>
+        <v>0.8064516129032258</v>
       </c>
       <c r="B94" t="n">
-        <v>0.5676446051167965</v>
+        <v>0.5822441601779754</v>
       </c>
       <c r="C94" t="n">
-        <v>0.8448275862068966</v>
+        <v>0.8189655172413793</v>
       </c>
     </row>
     <row r="95" spans="1:3">
@@ -1693,21 +2985,21 @@
         <v>0.8145161290322581</v>
       </c>
       <c r="B95" t="n">
-        <v>0.5676446051167965</v>
+        <v>0.5822441601779754</v>
       </c>
       <c r="C95" t="n">
-        <v>0.853448275862069</v>
+        <v>0.8189655172413793</v>
       </c>
     </row>
     <row r="96" spans="1:3">
       <c r="A96" t="n">
-        <v>0.8225806451612904</v>
+        <v>0.8145161290322581</v>
       </c>
       <c r="B96" t="n">
-        <v>0.5676446051167965</v>
+        <v>0.5822441601779754</v>
       </c>
       <c r="C96" t="n">
-        <v>0.853448275862069</v>
+        <v>0.8362068965517241</v>
       </c>
     </row>
     <row r="97" spans="1:3">
@@ -1715,207 +3007,262 @@
         <v>0.8225806451612904</v>
       </c>
       <c r="B97" t="n">
-        <v>0.5676446051167965</v>
+        <v>0.5822441601779754</v>
       </c>
       <c r="C97" t="n">
-        <v>0.8620689655172413</v>
+        <v>0.8362068965517241</v>
       </c>
     </row>
     <row r="98" spans="1:3">
       <c r="A98" t="n">
-        <v>0.8306451612903226</v>
+        <v>0.8225806451612904</v>
       </c>
       <c r="B98" t="n">
-        <v>0.5676446051167965</v>
+        <v>0.5822441601779754</v>
       </c>
       <c r="C98" t="n">
-        <v>0.8620689655172413</v>
+        <v>0.8448275862068966</v>
       </c>
     </row>
     <row r="99" spans="1:3">
       <c r="A99" t="n">
-        <v>0.8306451612903226</v>
+        <v>0.8387096774193549</v>
       </c>
       <c r="B99" t="n">
-        <v>0.5676446051167965</v>
+        <v>0.5822441601779754</v>
       </c>
       <c r="C99" t="n">
-        <v>0.8793103448275862</v>
+        <v>0.8448275862068966</v>
       </c>
     </row>
     <row r="100" spans="1:3">
       <c r="A100" t="n">
-        <v>0.8548387096774194</v>
+        <v>0.8387096774193549</v>
       </c>
       <c r="B100" t="n">
-        <v>0.5676446051167965</v>
+        <v>0.5822441601779754</v>
       </c>
       <c r="C100" t="n">
-        <v>0.8793103448275862</v>
+        <v>0.853448275862069</v>
       </c>
     </row>
     <row r="101" spans="1:3">
       <c r="A101" t="n">
-        <v>0.8548387096774194</v>
+        <v>0.8467741935483871</v>
       </c>
       <c r="B101" t="n">
-        <v>0.5676446051167965</v>
+        <v>0.5822441601779754</v>
       </c>
       <c r="C101" t="n">
-        <v>0.9051724137931034</v>
+        <v>0.853448275862069</v>
       </c>
     </row>
     <row r="102" spans="1:3">
       <c r="A102" t="n">
-        <v>0.8951612903225806</v>
+        <v>0.8467741935483871</v>
       </c>
       <c r="B102" t="n">
-        <v>0.5676446051167965</v>
+        <v>0.5822441601779754</v>
       </c>
       <c r="C102" t="n">
-        <v>0.9051724137931034</v>
+        <v>0.8620689655172413</v>
       </c>
     </row>
     <row r="103" spans="1:3">
       <c r="A103" t="n">
-        <v>0.8951612903225806</v>
+        <v>0.8548387096774194</v>
       </c>
       <c r="B103" t="n">
-        <v>0.5676446051167965</v>
+        <v>0.5822441601779754</v>
       </c>
       <c r="C103" t="n">
-        <v>0.9224137931034483</v>
+        <v>0.8620689655172413</v>
       </c>
     </row>
     <row r="104" spans="1:3">
       <c r="A104" t="n">
-        <v>0.9193548387096774</v>
+        <v>0.8548387096774194</v>
       </c>
       <c r="B104" t="n">
-        <v>0.5676446051167965</v>
+        <v>0.5822441601779754</v>
       </c>
       <c r="C104" t="n">
-        <v>0.9224137931034483</v>
+        <v>0.8706896551724138</v>
       </c>
     </row>
     <row r="105" spans="1:3">
       <c r="A105" t="n">
-        <v>0.9193548387096774</v>
+        <v>0.8790322580645161</v>
       </c>
       <c r="B105" t="n">
-        <v>0.5676446051167965</v>
+        <v>0.5822441601779754</v>
       </c>
       <c r="C105" t="n">
-        <v>0.9396551724137931</v>
+        <v>0.8706896551724138</v>
       </c>
     </row>
     <row r="106" spans="1:3">
       <c r="A106" t="n">
-        <v>0.9435483870967742</v>
+        <v>0.8790322580645161</v>
       </c>
       <c r="B106" t="n">
-        <v>0.5676446051167965</v>
+        <v>0.5822441601779754</v>
       </c>
       <c r="C106" t="n">
-        <v>0.9396551724137931</v>
+        <v>0.8793103448275862</v>
       </c>
     </row>
     <row r="107" spans="1:3">
       <c r="A107" t="n">
-        <v>0.9435483870967742</v>
+        <v>0.8870967741935484</v>
       </c>
       <c r="B107" t="n">
-        <v>0.5676446051167965</v>
+        <v>0.5822441601779754</v>
       </c>
       <c r="C107" t="n">
-        <v>0.9482758620689655</v>
+        <v>0.8793103448275862</v>
       </c>
     </row>
     <row r="108" spans="1:3">
       <c r="A108" t="n">
-        <v>0.9516129032258065</v>
+        <v>0.8870967741935484</v>
       </c>
       <c r="B108" t="n">
-        <v>0.5676446051167965</v>
+        <v>0.5822441601779754</v>
       </c>
       <c r="C108" t="n">
-        <v>0.9482758620689655</v>
+        <v>0.8879310344827587</v>
       </c>
     </row>
     <row r="109" spans="1:3">
       <c r="A109" t="n">
-        <v>0.9516129032258065</v>
+        <v>0.8951612903225806</v>
       </c>
       <c r="B109" t="n">
-        <v>0.5676446051167965</v>
+        <v>0.5822441601779754</v>
       </c>
       <c r="C109" t="n">
-        <v>0.9568965517241379</v>
+        <v>0.8879310344827587</v>
       </c>
     </row>
     <row r="110" spans="1:3">
       <c r="A110" t="n">
-        <v>0.9596774193548387</v>
+        <v>0.8951612903225806</v>
       </c>
       <c r="B110" t="n">
-        <v>0.5676446051167965</v>
+        <v>0.5822441601779754</v>
       </c>
       <c r="C110" t="n">
-        <v>0.9568965517241379</v>
+        <v>0.896551724137931</v>
       </c>
     </row>
     <row r="111" spans="1:3">
       <c r="A111" t="n">
-        <v>0.9596774193548387</v>
+        <v>0.9112903225806451</v>
       </c>
       <c r="B111" t="n">
-        <v>0.5676446051167965</v>
+        <v>0.5822441601779754</v>
       </c>
       <c r="C111" t="n">
-        <v>0.9741379310344828</v>
+        <v>0.896551724137931</v>
       </c>
     </row>
     <row r="112" spans="1:3">
       <c r="A112" t="n">
-        <v>0.9919354838709677</v>
+        <v>0.9112903225806451</v>
       </c>
       <c r="B112" t="n">
-        <v>0.5676446051167965</v>
+        <v>0.5822441601779754</v>
       </c>
       <c r="C112" t="n">
-        <v>0.9741379310344828</v>
+        <v>0.9396551724137931</v>
       </c>
     </row>
     <row r="113" spans="1:3">
       <c r="A113" t="n">
-        <v>0.9919354838709677</v>
+        <v>0.9435483870967742</v>
       </c>
       <c r="B113" t="n">
-        <v>0.5676446051167965</v>
+        <v>0.5822441601779754</v>
       </c>
       <c r="C113" t="n">
-        <v>0.9827586206896551</v>
+        <v>0.9396551724137931</v>
       </c>
     </row>
     <row r="114" spans="1:3">
       <c r="A114" t="n">
-        <v>1</v>
+        <v>0.9435483870967742</v>
       </c>
       <c r="B114" t="n">
-        <v>0.5676446051167965</v>
+        <v>0.5822441601779754</v>
       </c>
       <c r="C114" t="n">
-        <v>0.9827586206896551</v>
+        <v>0.9741379310344828</v>
       </c>
     </row>
     <row r="115" spans="1:3">
       <c r="A115" t="n">
+        <v>0.9516129032258065</v>
+      </c>
+      <c r="B115" t="n">
+        <v>0.5822441601779754</v>
+      </c>
+      <c r="C115" t="n">
+        <v>0.9741379310344828</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3">
+      <c r="A116" t="n">
+        <v>0.9516129032258065</v>
+      </c>
+      <c r="B116" t="n">
+        <v>0.5822441601779754</v>
+      </c>
+      <c r="C116" t="n">
+        <v>0.9827586206896551</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3">
+      <c r="A117" t="n">
+        <v>0.9596774193548387</v>
+      </c>
+      <c r="B117" t="n">
+        <v>0.5822441601779754</v>
+      </c>
+      <c r="C117" t="n">
+        <v>0.9827586206896551</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3">
+      <c r="A118" t="n">
+        <v>0.9596774193548387</v>
+      </c>
+      <c r="B118" t="n">
+        <v>0.5822441601779754</v>
+      </c>
+      <c r="C118" t="n">
+        <v>0.9913793103448276</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3">
+      <c r="A119" t="n">
         <v>1</v>
       </c>
-      <c r="B115" t="n">
-        <v>0.5676446051167965</v>
-      </c>
-      <c r="C115" t="n">
+      <c r="B119" t="n">
+        <v>0.5822441601779754</v>
+      </c>
+      <c r="C119" t="n">
+        <v>0.9913793103448276</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3">
+      <c r="A120" t="n">
+        <v>1</v>
+      </c>
+      <c r="B120" t="n">
+        <v>0.5822441601779754</v>
+      </c>
+      <c r="C120" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1930,7 +3277,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C115"/>
+  <dimension ref="A1:C120"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1954,7 +3301,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.5676446051167965</v>
+        <v>0.582174638487208</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -1965,7 +3312,7 @@
         <v>0.008620689655172414</v>
       </c>
       <c r="B3" t="n">
-        <v>0.5676446051167965</v>
+        <v>0.582174638487208</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -1973,13 +3320,13 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="n">
-        <v>0.01724137931034483</v>
+        <v>0.008620689655172414</v>
       </c>
       <c r="B4" t="n">
-        <v>0.5676446051167965</v>
+        <v>0.582174638487208</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>0.04032258064516129</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -1987,21 +3334,21 @@
         <v>0.01724137931034483</v>
       </c>
       <c r="B5" t="n">
-        <v>0.5676446051167965</v>
+        <v>0.582174638487208</v>
       </c>
       <c r="C5" t="n">
-        <v>0.008064516129032258</v>
+        <v>0.04032258064516129</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="n">
-        <v>0.02586206896551724</v>
+        <v>0.01724137931034483</v>
       </c>
       <c r="B6" t="n">
-        <v>0.5676446051167965</v>
+        <v>0.582174638487208</v>
       </c>
       <c r="C6" t="n">
-        <v>0.008064516129032258</v>
+        <v>0.04838709677419355</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -2009,128 +3356,128 @@
         <v>0.02586206896551724</v>
       </c>
       <c r="B7" t="n">
-        <v>0.5676446051167965</v>
+        <v>0.582174638487208</v>
       </c>
       <c r="C7" t="n">
-        <v>0.04032258064516129</v>
+        <v>0.04838709677419355</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="n">
-        <v>0.04310344827586207</v>
+        <v>0.02586206896551724</v>
       </c>
       <c r="B8" t="n">
-        <v>0.5676446051167965</v>
+        <v>0.582174638487208</v>
       </c>
       <c r="C8" t="n">
-        <v>0.04032258064516129</v>
+        <v>0.0564516129032258</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="n">
-        <v>0.04310344827586207</v>
+        <v>0.0603448275862069</v>
       </c>
       <c r="B9" t="n">
-        <v>0.5676446051167965</v>
+        <v>0.582174638487208</v>
       </c>
       <c r="C9" t="n">
-        <v>0.04838709677419355</v>
+        <v>0.0564516129032258</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="n">
-        <v>0.05172413793103448</v>
+        <v>0.0603448275862069</v>
       </c>
       <c r="B10" t="n">
-        <v>0.5676446051167965</v>
+        <v>0.582174638487208</v>
       </c>
       <c r="C10" t="n">
-        <v>0.04838709677419355</v>
+        <v>0.08870967741935484</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="n">
-        <v>0.05172413793103448</v>
+        <v>0.103448275862069</v>
       </c>
       <c r="B11" t="n">
-        <v>0.5676446051167965</v>
+        <v>0.582174638487208</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0564516129032258</v>
+        <v>0.08870967741935484</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="n">
-        <v>0.0603448275862069</v>
+        <v>0.103448275862069</v>
       </c>
       <c r="B12" t="n">
-        <v>0.5676446051167965</v>
+        <v>0.582174638487208</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0564516129032258</v>
+        <v>0.1048387096774194</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="n">
-        <v>0.0603448275862069</v>
+        <v>0.1120689655172414</v>
       </c>
       <c r="B13" t="n">
-        <v>0.5676446051167965</v>
+        <v>0.582174638487208</v>
       </c>
       <c r="C13" t="n">
-        <v>0.08064516129032258</v>
+        <v>0.1048387096774194</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="n">
-        <v>0.07758620689655173</v>
+        <v>0.1120689655172414</v>
       </c>
       <c r="B14" t="n">
-        <v>0.5676446051167965</v>
+        <v>0.582174638487208</v>
       </c>
       <c r="C14" t="n">
-        <v>0.08064516129032258</v>
+        <v>0.1129032258064516</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="n">
-        <v>0.07758620689655173</v>
+        <v>0.1206896551724138</v>
       </c>
       <c r="B15" t="n">
-        <v>0.5676446051167965</v>
+        <v>0.582174638487208</v>
       </c>
       <c r="C15" t="n">
-        <v>0.1048387096774194</v>
+        <v>0.1129032258064516</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="n">
-        <v>0.09482758620689655</v>
+        <v>0.1206896551724138</v>
       </c>
       <c r="B16" t="n">
-        <v>0.5676446051167965</v>
+        <v>0.582174638487208</v>
       </c>
       <c r="C16" t="n">
-        <v>0.1048387096774194</v>
+        <v>0.1209677419354839</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="n">
-        <v>0.09482758620689655</v>
+        <v>0.1293103448275862</v>
       </c>
       <c r="B17" t="n">
-        <v>0.5676446051167965</v>
+        <v>0.582174638487208</v>
       </c>
       <c r="C17" t="n">
-        <v>0.1451612903225807</v>
+        <v>0.1209677419354839</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="n">
-        <v>0.1206896551724138</v>
+        <v>0.1293103448275862</v>
       </c>
       <c r="B18" t="n">
-        <v>0.5676446051167965</v>
+        <v>0.582174638487208</v>
       </c>
       <c r="C18" t="n">
         <v>0.1451612903225807</v>
@@ -2138,13 +3485,13 @@
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="n">
-        <v>0.1206896551724138</v>
+        <v>0.1379310344827586</v>
       </c>
       <c r="B19" t="n">
-        <v>0.5676446051167965</v>
+        <v>0.582174638487208</v>
       </c>
       <c r="C19" t="n">
-        <v>0.1693548387096774</v>
+        <v>0.1451612903225807</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -2152,21 +3499,21 @@
         <v>0.1379310344827586</v>
       </c>
       <c r="B20" t="n">
-        <v>0.5676446051167965</v>
+        <v>0.582174638487208</v>
       </c>
       <c r="C20" t="n">
-        <v>0.1693548387096774</v>
+        <v>0.1532258064516129</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="n">
-        <v>0.1379310344827586</v>
+        <v>0.146551724137931</v>
       </c>
       <c r="B21" t="n">
-        <v>0.5676446051167965</v>
+        <v>0.582174638487208</v>
       </c>
       <c r="C21" t="n">
-        <v>0.1774193548387097</v>
+        <v>0.1532258064516129</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -2174,21 +3521,21 @@
         <v>0.146551724137931</v>
       </c>
       <c r="B22" t="n">
-        <v>0.5676446051167965</v>
+        <v>0.582174638487208</v>
       </c>
       <c r="C22" t="n">
-        <v>0.1774193548387097</v>
+        <v>0.1612903225806452</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="n">
-        <v>0.146551724137931</v>
+        <v>0.1551724137931035</v>
       </c>
       <c r="B23" t="n">
-        <v>0.5676446051167965</v>
+        <v>0.582174638487208</v>
       </c>
       <c r="C23" t="n">
-        <v>0.1854838709677419</v>
+        <v>0.1612903225806452</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -2196,21 +3543,21 @@
         <v>0.1551724137931035</v>
       </c>
       <c r="B24" t="n">
-        <v>0.5676446051167965</v>
+        <v>0.582174638487208</v>
       </c>
       <c r="C24" t="n">
-        <v>0.1854838709677419</v>
+        <v>0.1774193548387097</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" t="n">
-        <v>0.1551724137931035</v>
+        <v>0.1637931034482759</v>
       </c>
       <c r="B25" t="n">
-        <v>0.5676446051167965</v>
+        <v>0.582174638487208</v>
       </c>
       <c r="C25" t="n">
-        <v>0.2016129032258064</v>
+        <v>0.1774193548387097</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -2218,197 +3565,197 @@
         <v>0.1637931034482759</v>
       </c>
       <c r="B26" t="n">
-        <v>0.5676446051167965</v>
+        <v>0.582174638487208</v>
       </c>
       <c r="C26" t="n">
-        <v>0.2016129032258064</v>
+        <v>0.1854838709677419</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" t="n">
-        <v>0.1637931034482759</v>
+        <v>0.1810344827586207</v>
       </c>
       <c r="B27" t="n">
-        <v>0.5676446051167965</v>
+        <v>0.582174638487208</v>
       </c>
       <c r="C27" t="n">
-        <v>0.217741935483871</v>
+        <v>0.1854838709677419</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" t="n">
-        <v>0.1724137931034483</v>
+        <v>0.1810344827586207</v>
       </c>
       <c r="B28" t="n">
-        <v>0.5676446051167965</v>
+        <v>0.582174638487208</v>
       </c>
       <c r="C28" t="n">
-        <v>0.217741935483871</v>
+        <v>0.1935483870967742</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" t="n">
-        <v>0.1724137931034483</v>
+        <v>0.1896551724137931</v>
       </c>
       <c r="B29" t="n">
-        <v>0.5676446051167965</v>
+        <v>0.582174638487208</v>
       </c>
       <c r="C29" t="n">
-        <v>0.2338709677419355</v>
+        <v>0.1935483870967742</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" t="n">
-        <v>0.1810344827586207</v>
+        <v>0.1896551724137931</v>
       </c>
       <c r="B30" t="n">
-        <v>0.5676446051167965</v>
+        <v>0.582174638487208</v>
       </c>
       <c r="C30" t="n">
-        <v>0.2338709677419355</v>
+        <v>0.2983870967741936</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" t="n">
-        <v>0.1810344827586207</v>
+        <v>0.1982758620689655</v>
       </c>
       <c r="B31" t="n">
-        <v>0.5676446051167965</v>
+        <v>0.582174638487208</v>
       </c>
       <c r="C31" t="n">
-        <v>0.25</v>
+        <v>0.2983870967741936</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" t="n">
-        <v>0.1896551724137931</v>
+        <v>0.1982758620689655</v>
       </c>
       <c r="B32" t="n">
-        <v>0.5676446051167965</v>
+        <v>0.582174638487208</v>
       </c>
       <c r="C32" t="n">
-        <v>0.25</v>
+        <v>0.3225806451612903</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" t="n">
-        <v>0.1896551724137931</v>
+        <v>0.2155172413793103</v>
       </c>
       <c r="B33" t="n">
-        <v>0.5676446051167965</v>
+        <v>0.582174638487208</v>
       </c>
       <c r="C33" t="n">
-        <v>0.2580645161290323</v>
+        <v>0.3225806451612903</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" t="n">
-        <v>0.1982758620689655</v>
+        <v>0.2155172413793103</v>
       </c>
       <c r="B34" t="n">
-        <v>0.5676446051167965</v>
+        <v>0.582174638487208</v>
       </c>
       <c r="C34" t="n">
-        <v>0.2580645161290323</v>
+        <v>0.3306451612903226</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" t="n">
-        <v>0.1982758620689655</v>
+        <v>0.2241379310344828</v>
       </c>
       <c r="B35" t="n">
-        <v>0.5676446051167965</v>
+        <v>0.582174638487208</v>
       </c>
       <c r="C35" t="n">
-        <v>0.2741935483870968</v>
+        <v>0.3306451612903226</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" t="n">
-        <v>0.2155172413793103</v>
+        <v>0.2241379310344828</v>
       </c>
       <c r="B36" t="n">
-        <v>0.5676446051167965</v>
+        <v>0.582174638487208</v>
       </c>
       <c r="C36" t="n">
-        <v>0.2741935483870968</v>
+        <v>0.3387096774193548</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" t="n">
-        <v>0.2155172413793103</v>
+        <v>0.25</v>
       </c>
       <c r="B37" t="n">
-        <v>0.5676446051167965</v>
+        <v>0.582174638487208</v>
       </c>
       <c r="C37" t="n">
-        <v>0.2822580645161291</v>
+        <v>0.3387096774193548</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" t="n">
-        <v>0.2327586206896552</v>
+        <v>0.25</v>
       </c>
       <c r="B38" t="n">
-        <v>0.5676446051167965</v>
+        <v>0.582174638487208</v>
       </c>
       <c r="C38" t="n">
-        <v>0.2822580645161291</v>
+        <v>0.3467741935483871</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" t="n">
-        <v>0.2327586206896552</v>
+        <v>0.2586206896551724</v>
       </c>
       <c r="B39" t="n">
-        <v>0.5676446051167965</v>
+        <v>0.582174638487208</v>
       </c>
       <c r="C39" t="n">
-        <v>0.2903225806451613</v>
+        <v>0.3467741935483871</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" t="n">
-        <v>0.2413793103448276</v>
+        <v>0.2586206896551724</v>
       </c>
       <c r="B40" t="n">
-        <v>0.5676446051167965</v>
+        <v>0.582174638487208</v>
       </c>
       <c r="C40" t="n">
-        <v>0.2903225806451613</v>
+        <v>0.3548387096774194</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" t="n">
-        <v>0.2413793103448276</v>
+        <v>0.2844827586206897</v>
       </c>
       <c r="B41" t="n">
-        <v>0.5676446051167965</v>
+        <v>0.582174638487208</v>
       </c>
       <c r="C41" t="n">
-        <v>0.3145161290322581</v>
+        <v>0.3548387096774194</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" t="n">
-        <v>0.2586206896551724</v>
+        <v>0.2844827586206897</v>
       </c>
       <c r="B42" t="n">
-        <v>0.5676446051167965</v>
+        <v>0.582174638487208</v>
       </c>
       <c r="C42" t="n">
-        <v>0.3145161290322581</v>
+        <v>0.3709677419354839</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" t="n">
-        <v>0.2586206896551724</v>
+        <v>0.293103448275862</v>
       </c>
       <c r="B43" t="n">
-        <v>0.5676446051167965</v>
+        <v>0.582174638487208</v>
       </c>
       <c r="C43" t="n">
-        <v>0.3306451612903226</v>
+        <v>0.3709677419354839</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -2416,32 +3763,32 @@
         <v>0.293103448275862</v>
       </c>
       <c r="B44" t="n">
-        <v>0.5676446051167965</v>
+        <v>0.582174638487208</v>
       </c>
       <c r="C44" t="n">
-        <v>0.3306451612903226</v>
+        <v>0.3790322580645161</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45" t="n">
-        <v>0.293103448275862</v>
+        <v>0.3017241379310345</v>
       </c>
       <c r="B45" t="n">
-        <v>0.5676446051167965</v>
+        <v>0.582174638487208</v>
       </c>
       <c r="C45" t="n">
-        <v>0.3387096774193548</v>
+        <v>0.3790322580645161</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46" t="n">
-        <v>0.3103448275862069</v>
+        <v>0.3017241379310345</v>
       </c>
       <c r="B46" t="n">
-        <v>0.5676446051167965</v>
+        <v>0.582174638487208</v>
       </c>
       <c r="C46" t="n">
-        <v>0.3387096774193548</v>
+        <v>0.3951612903225806</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -2449,161 +3796,161 @@
         <v>0.3103448275862069</v>
       </c>
       <c r="B47" t="n">
-        <v>0.5676446051167965</v>
+        <v>0.582174638487208</v>
       </c>
       <c r="C47" t="n">
-        <v>0.3629032258064516</v>
+        <v>0.3951612903225806</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="A48" t="n">
-        <v>0.3362068965517241</v>
+        <v>0.3103448275862069</v>
       </c>
       <c r="B48" t="n">
-        <v>0.5676446051167965</v>
+        <v>0.582174638487208</v>
       </c>
       <c r="C48" t="n">
-        <v>0.3629032258064516</v>
+        <v>0.4193548387096774</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49" t="n">
-        <v>0.3362068965517241</v>
+        <v>0.3275862068965517</v>
       </c>
       <c r="B49" t="n">
-        <v>0.5676446051167965</v>
+        <v>0.582174638487208</v>
       </c>
       <c r="C49" t="n">
-        <v>0.3790322580645161</v>
+        <v>0.4193548387096774</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50" t="n">
-        <v>0.3620689655172414</v>
+        <v>0.3275862068965517</v>
       </c>
       <c r="B50" t="n">
-        <v>0.5676446051167965</v>
+        <v>0.582174638487208</v>
       </c>
       <c r="C50" t="n">
-        <v>0.3790322580645161</v>
+        <v>0.4758064516129032</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51" t="n">
-        <v>0.3620689655172414</v>
+        <v>0.3362068965517241</v>
       </c>
       <c r="B51" t="n">
-        <v>0.5676446051167965</v>
+        <v>0.582174638487208</v>
       </c>
       <c r="C51" t="n">
-        <v>0.4112903225806452</v>
+        <v>0.4758064516129032</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52" t="n">
-        <v>0.3706896551724138</v>
+        <v>0.3362068965517241</v>
       </c>
       <c r="B52" t="n">
-        <v>0.5676446051167965</v>
+        <v>0.582174638487208</v>
       </c>
       <c r="C52" t="n">
-        <v>0.4112903225806452</v>
+        <v>0.4838709677419355</v>
       </c>
     </row>
     <row r="53" spans="1:3">
       <c r="A53" t="n">
-        <v>0.3706896551724138</v>
+        <v>0.353448275862069</v>
       </c>
       <c r="B53" t="n">
-        <v>0.5676446051167965</v>
+        <v>0.582174638487208</v>
       </c>
       <c r="C53" t="n">
-        <v>0.4193548387096774</v>
+        <v>0.4838709677419355</v>
       </c>
     </row>
     <row r="54" spans="1:3">
       <c r="A54" t="n">
-        <v>0.3879310344827586</v>
+        <v>0.353448275862069</v>
       </c>
       <c r="B54" t="n">
-        <v>0.5676446051167965</v>
+        <v>0.582174638487208</v>
       </c>
       <c r="C54" t="n">
-        <v>0.4193548387096774</v>
+        <v>0.4919354838709677</v>
       </c>
     </row>
     <row r="55" spans="1:3">
       <c r="A55" t="n">
-        <v>0.3879310344827586</v>
+        <v>0.3793103448275862</v>
       </c>
       <c r="B55" t="n">
-        <v>0.5676446051167965</v>
+        <v>0.582174638487208</v>
       </c>
       <c r="C55" t="n">
-        <v>0.4435483870967742</v>
+        <v>0.4919354838709677</v>
       </c>
     </row>
     <row r="56" spans="1:3">
       <c r="A56" t="n">
-        <v>0.396551724137931</v>
+        <v>0.3793103448275862</v>
       </c>
       <c r="B56" t="n">
-        <v>0.5676446051167965</v>
+        <v>0.582174638487208</v>
       </c>
       <c r="C56" t="n">
-        <v>0.4435483870967742</v>
+        <v>0.5080645161290323</v>
       </c>
     </row>
     <row r="57" spans="1:3">
       <c r="A57" t="n">
-        <v>0.396551724137931</v>
+        <v>0.4137931034482759</v>
       </c>
       <c r="B57" t="n">
-        <v>0.5676446051167965</v>
+        <v>0.582174638487208</v>
       </c>
       <c r="C57" t="n">
-        <v>0.4677419354838709</v>
+        <v>0.5080645161290323</v>
       </c>
     </row>
     <row r="58" spans="1:3">
       <c r="A58" t="n">
-        <v>0.4051724137931034</v>
+        <v>0.4137931034482759</v>
       </c>
       <c r="B58" t="n">
-        <v>0.5676446051167965</v>
+        <v>0.582174638487208</v>
       </c>
       <c r="C58" t="n">
-        <v>0.4677419354838709</v>
+        <v>0.5161290322580645</v>
       </c>
     </row>
     <row r="59" spans="1:3">
       <c r="A59" t="n">
-        <v>0.4051724137931034</v>
+        <v>0.4224137931034483</v>
       </c>
       <c r="B59" t="n">
-        <v>0.5676446051167965</v>
+        <v>0.582174638487208</v>
       </c>
       <c r="C59" t="n">
-        <v>0.5</v>
+        <v>0.5161290322580645</v>
       </c>
     </row>
     <row r="60" spans="1:3">
       <c r="A60" t="n">
-        <v>0.4137931034482759</v>
+        <v>0.4224137931034483</v>
       </c>
       <c r="B60" t="n">
-        <v>0.5676446051167965</v>
+        <v>0.582174638487208</v>
       </c>
       <c r="C60" t="n">
-        <v>0.5</v>
+        <v>0.5241935483870968</v>
       </c>
     </row>
     <row r="61" spans="1:3">
       <c r="A61" t="n">
-        <v>0.4137931034482759</v>
+        <v>0.4310344827586207</v>
       </c>
       <c r="B61" t="n">
-        <v>0.5676446051167965</v>
+        <v>0.582174638487208</v>
       </c>
       <c r="C61" t="n">
         <v>0.5241935483870968</v>
@@ -2611,21 +3958,21 @@
     </row>
     <row r="62" spans="1:3">
       <c r="A62" t="n">
-        <v>0.4224137931034483</v>
+        <v>0.4310344827586207</v>
       </c>
       <c r="B62" t="n">
-        <v>0.5676446051167965</v>
+        <v>0.582174638487208</v>
       </c>
       <c r="C62" t="n">
-        <v>0.5241935483870968</v>
+        <v>0.532258064516129</v>
       </c>
     </row>
     <row r="63" spans="1:3">
       <c r="A63" t="n">
-        <v>0.4224137931034483</v>
+        <v>0.4482758620689655</v>
       </c>
       <c r="B63" t="n">
-        <v>0.5676446051167965</v>
+        <v>0.582174638487208</v>
       </c>
       <c r="C63" t="n">
         <v>0.532258064516129</v>
@@ -2633,13 +3980,13 @@
     </row>
     <row r="64" spans="1:3">
       <c r="A64" t="n">
-        <v>0.456896551724138</v>
+        <v>0.4482758620689655</v>
       </c>
       <c r="B64" t="n">
-        <v>0.5676446051167965</v>
+        <v>0.582174638487208</v>
       </c>
       <c r="C64" t="n">
-        <v>0.532258064516129</v>
+        <v>0.5483870967741935</v>
       </c>
     </row>
     <row r="65" spans="1:3">
@@ -2647,29 +3994,29 @@
         <v>0.456896551724138</v>
       </c>
       <c r="B65" t="n">
-        <v>0.5676446051167965</v>
+        <v>0.582174638487208</v>
       </c>
       <c r="C65" t="n">
-        <v>0.5564516129032258</v>
+        <v>0.5483870967741935</v>
       </c>
     </row>
     <row r="66" spans="1:3">
       <c r="A66" t="n">
-        <v>0.4741379310344828</v>
+        <v>0.456896551724138</v>
       </c>
       <c r="B66" t="n">
-        <v>0.5676446051167965</v>
+        <v>0.582174638487208</v>
       </c>
       <c r="C66" t="n">
-        <v>0.5564516129032258</v>
+        <v>0.5806451612903226</v>
       </c>
     </row>
     <row r="67" spans="1:3">
       <c r="A67" t="n">
-        <v>0.4741379310344828</v>
+        <v>0.4827586206896552</v>
       </c>
       <c r="B67" t="n">
-        <v>0.5676446051167965</v>
+        <v>0.582174638487208</v>
       </c>
       <c r="C67" t="n">
         <v>0.5806451612903226</v>
@@ -2677,24 +4024,24 @@
     </row>
     <row r="68" spans="1:3">
       <c r="A68" t="n">
-        <v>0.5</v>
+        <v>0.4827586206896552</v>
       </c>
       <c r="B68" t="n">
-        <v>0.5676446051167965</v>
+        <v>0.582174638487208</v>
       </c>
       <c r="C68" t="n">
-        <v>0.5806451612903226</v>
+        <v>0.5887096774193549</v>
       </c>
     </row>
     <row r="69" spans="1:3">
       <c r="A69" t="n">
-        <v>0.5</v>
+        <v>0.5086206896551724</v>
       </c>
       <c r="B69" t="n">
-        <v>0.5676446051167965</v>
+        <v>0.582174638487208</v>
       </c>
       <c r="C69" t="n">
-        <v>0.6129032258064516</v>
+        <v>0.5887096774193549</v>
       </c>
     </row>
     <row r="70" spans="1:3">
@@ -2702,43 +4049,43 @@
         <v>0.5086206896551724</v>
       </c>
       <c r="B70" t="n">
-        <v>0.5676446051167965</v>
+        <v>0.582174638487208</v>
       </c>
       <c r="C70" t="n">
-        <v>0.6129032258064516</v>
+        <v>0.6048387096774194</v>
       </c>
     </row>
     <row r="71" spans="1:3">
       <c r="A71" t="n">
-        <v>0.5086206896551724</v>
+        <v>0.5258620689655172</v>
       </c>
       <c r="B71" t="n">
-        <v>0.5676446051167965</v>
+        <v>0.582174638487208</v>
       </c>
       <c r="C71" t="n">
-        <v>0.6209677419354839</v>
+        <v>0.6048387096774194</v>
       </c>
     </row>
     <row r="72" spans="1:3">
       <c r="A72" t="n">
-        <v>0.5172413793103449</v>
+        <v>0.5258620689655172</v>
       </c>
       <c r="B72" t="n">
-        <v>0.5676446051167965</v>
+        <v>0.582174638487208</v>
       </c>
       <c r="C72" t="n">
-        <v>0.6209677419354839</v>
+        <v>0.6370967741935484</v>
       </c>
     </row>
     <row r="73" spans="1:3">
       <c r="A73" t="n">
-        <v>0.5172413793103449</v>
+        <v>0.5344827586206896</v>
       </c>
       <c r="B73" t="n">
-        <v>0.5676446051167965</v>
+        <v>0.582174638487208</v>
       </c>
       <c r="C73" t="n">
-        <v>0.6451612903225806</v>
+        <v>0.6370967741935484</v>
       </c>
     </row>
     <row r="74" spans="1:3">
@@ -2746,73 +4093,73 @@
         <v>0.5344827586206896</v>
       </c>
       <c r="B74" t="n">
-        <v>0.5676446051167965</v>
+        <v>0.582174638487208</v>
       </c>
       <c r="C74" t="n">
-        <v>0.6451612903225806</v>
+        <v>0.6532258064516129</v>
       </c>
     </row>
     <row r="75" spans="1:3">
       <c r="A75" t="n">
-        <v>0.5344827586206896</v>
+        <v>0.5431034482758621</v>
       </c>
       <c r="B75" t="n">
-        <v>0.5676446051167965</v>
+        <v>0.582174638487208</v>
       </c>
       <c r="C75" t="n">
-        <v>0.6774193548387096</v>
+        <v>0.6532258064516129</v>
       </c>
     </row>
     <row r="76" spans="1:3">
       <c r="A76" t="n">
-        <v>0.5517241379310345</v>
+        <v>0.5431034482758621</v>
       </c>
       <c r="B76" t="n">
-        <v>0.5676446051167965</v>
+        <v>0.582174638487208</v>
       </c>
       <c r="C76" t="n">
-        <v>0.6774193548387096</v>
+        <v>0.6693548387096774</v>
       </c>
     </row>
     <row r="77" spans="1:3">
       <c r="A77" t="n">
-        <v>0.5517241379310345</v>
+        <v>0.5603448275862069</v>
       </c>
       <c r="B77" t="n">
-        <v>0.5676446051167965</v>
+        <v>0.582174638487208</v>
       </c>
       <c r="C77" t="n">
-        <v>0.6854838709677419</v>
+        <v>0.6693548387096774</v>
       </c>
     </row>
     <row r="78" spans="1:3">
       <c r="A78" t="n">
-        <v>0.5689655172413793</v>
+        <v>0.5603448275862069</v>
       </c>
       <c r="B78" t="n">
-        <v>0.5676446051167965</v>
+        <v>0.582174638487208</v>
       </c>
       <c r="C78" t="n">
-        <v>0.6854838709677419</v>
+        <v>0.6774193548387096</v>
       </c>
     </row>
     <row r="79" spans="1:3">
       <c r="A79" t="n">
-        <v>0.5689655172413793</v>
+        <v>0.5775862068965517</v>
       </c>
       <c r="B79" t="n">
-        <v>0.5676446051167965</v>
+        <v>0.582174638487208</v>
       </c>
       <c r="C79" t="n">
-        <v>0.7016129032258065</v>
+        <v>0.6774193548387096</v>
       </c>
     </row>
     <row r="80" spans="1:3">
       <c r="A80" t="n">
-        <v>0.6120689655172413</v>
+        <v>0.5775862068965517</v>
       </c>
       <c r="B80" t="n">
-        <v>0.5676446051167965</v>
+        <v>0.582174638487208</v>
       </c>
       <c r="C80" t="n">
         <v>0.7016129032258065</v>
@@ -2820,13 +4167,13 @@
     </row>
     <row r="81" spans="1:3">
       <c r="A81" t="n">
-        <v>0.6120689655172413</v>
+        <v>0.6206896551724138</v>
       </c>
       <c r="B81" t="n">
-        <v>0.5676446051167965</v>
+        <v>0.582174638487208</v>
       </c>
       <c r="C81" t="n">
-        <v>0.717741935483871</v>
+        <v>0.7016129032258065</v>
       </c>
     </row>
     <row r="82" spans="1:3">
@@ -2834,29 +4181,29 @@
         <v>0.6206896551724138</v>
       </c>
       <c r="B82" t="n">
-        <v>0.5676446051167965</v>
+        <v>0.582174638487208</v>
       </c>
       <c r="C82" t="n">
-        <v>0.717741935483871</v>
+        <v>0.7338709677419355</v>
       </c>
     </row>
     <row r="83" spans="1:3">
       <c r="A83" t="n">
-        <v>0.6206896551724138</v>
+        <v>0.6293103448275862</v>
       </c>
       <c r="B83" t="n">
-        <v>0.5676446051167965</v>
+        <v>0.582174638487208</v>
       </c>
       <c r="C83" t="n">
-        <v>0.7419354838709677</v>
+        <v>0.7338709677419355</v>
       </c>
     </row>
     <row r="84" spans="1:3">
       <c r="A84" t="n">
-        <v>0.646551724137931</v>
+        <v>0.6293103448275862</v>
       </c>
       <c r="B84" t="n">
-        <v>0.5676446051167965</v>
+        <v>0.582174638487208</v>
       </c>
       <c r="C84" t="n">
         <v>0.7419354838709677</v>
@@ -2864,46 +4211,46 @@
     </row>
     <row r="85" spans="1:3">
       <c r="A85" t="n">
-        <v>0.646551724137931</v>
+        <v>0.6379310344827587</v>
       </c>
       <c r="B85" t="n">
-        <v>0.5676446051167965</v>
+        <v>0.582174638487208</v>
       </c>
       <c r="C85" t="n">
-        <v>0.7580645161290323</v>
+        <v>0.7419354838709677</v>
       </c>
     </row>
     <row r="86" spans="1:3">
       <c r="A86" t="n">
-        <v>0.6551724137931034</v>
+        <v>0.6379310344827587</v>
       </c>
       <c r="B86" t="n">
-        <v>0.5676446051167965</v>
+        <v>0.582174638487208</v>
       </c>
       <c r="C86" t="n">
-        <v>0.7580645161290323</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="87" spans="1:3">
       <c r="A87" t="n">
-        <v>0.6551724137931034</v>
+        <v>0.646551724137931</v>
       </c>
       <c r="B87" t="n">
-        <v>0.5676446051167965</v>
+        <v>0.582174638487208</v>
       </c>
       <c r="C87" t="n">
-        <v>0.782258064516129</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="88" spans="1:3">
       <c r="A88" t="n">
-        <v>0.6637931034482759</v>
+        <v>0.646551724137931</v>
       </c>
       <c r="B88" t="n">
-        <v>0.5676446051167965</v>
+        <v>0.582174638487208</v>
       </c>
       <c r="C88" t="n">
-        <v>0.782258064516129</v>
+        <v>0.7580645161290323</v>
       </c>
     </row>
     <row r="89" spans="1:3">
@@ -2911,18 +4258,18 @@
         <v>0.6637931034482759</v>
       </c>
       <c r="B89" t="n">
-        <v>0.5676446051167965</v>
+        <v>0.582174638487208</v>
       </c>
       <c r="C89" t="n">
-        <v>0.7983870967741935</v>
+        <v>0.7580645161290323</v>
       </c>
     </row>
     <row r="90" spans="1:3">
       <c r="A90" t="n">
-        <v>0.6724137931034483</v>
+        <v>0.6637931034482759</v>
       </c>
       <c r="B90" t="n">
-        <v>0.5676446051167965</v>
+        <v>0.582174638487208</v>
       </c>
       <c r="C90" t="n">
         <v>0.7983870967741935</v>
@@ -2933,18 +4280,18 @@
         <v>0.6724137931034483</v>
       </c>
       <c r="B91" t="n">
-        <v>0.5676446051167965</v>
+        <v>0.582174638487208</v>
       </c>
       <c r="C91" t="n">
-        <v>0.8145161290322581</v>
+        <v>0.7983870967741935</v>
       </c>
     </row>
     <row r="92" spans="1:3">
       <c r="A92" t="n">
-        <v>0.6896551724137931</v>
+        <v>0.6724137931034483</v>
       </c>
       <c r="B92" t="n">
-        <v>0.5676446051167965</v>
+        <v>0.582174638487208</v>
       </c>
       <c r="C92" t="n">
         <v>0.8145161290322581</v>
@@ -2952,46 +4299,46 @@
     </row>
     <row r="93" spans="1:3">
       <c r="A93" t="n">
-        <v>0.6896551724137931</v>
+        <v>0.6810344827586207</v>
       </c>
       <c r="B93" t="n">
-        <v>0.5676446051167965</v>
+        <v>0.582174638487208</v>
       </c>
       <c r="C93" t="n">
-        <v>0.8225806451612904</v>
+        <v>0.8145161290322581</v>
       </c>
     </row>
     <row r="94" spans="1:3">
       <c r="A94" t="n">
-        <v>0.7155172413793104</v>
+        <v>0.6810344827586207</v>
       </c>
       <c r="B94" t="n">
-        <v>0.5676446051167965</v>
+        <v>0.582174638487208</v>
       </c>
       <c r="C94" t="n">
-        <v>0.8225806451612904</v>
+        <v>0.8467741935483871</v>
       </c>
     </row>
     <row r="95" spans="1:3">
       <c r="A95" t="n">
-        <v>0.7155172413793104</v>
+        <v>0.7068965517241379</v>
       </c>
       <c r="B95" t="n">
-        <v>0.5676446051167965</v>
+        <v>0.582174638487208</v>
       </c>
       <c r="C95" t="n">
-        <v>0.8306451612903226</v>
+        <v>0.8467741935483871</v>
       </c>
     </row>
     <row r="96" spans="1:3">
       <c r="A96" t="n">
-        <v>0.7241379310344828</v>
+        <v>0.7068965517241379</v>
       </c>
       <c r="B96" t="n">
-        <v>0.5676446051167965</v>
+        <v>0.582174638487208</v>
       </c>
       <c r="C96" t="n">
-        <v>0.8306451612903226</v>
+        <v>0.8548387096774194</v>
       </c>
     </row>
     <row r="97" spans="1:3">
@@ -2999,21 +4346,21 @@
         <v>0.7241379310344828</v>
       </c>
       <c r="B97" t="n">
-        <v>0.5676446051167965</v>
+        <v>0.582174638487208</v>
       </c>
       <c r="C97" t="n">
-        <v>0.8467741935483871</v>
+        <v>0.8548387096774194</v>
       </c>
     </row>
     <row r="98" spans="1:3">
       <c r="A98" t="n">
-        <v>0.7327586206896551</v>
+        <v>0.7241379310344828</v>
       </c>
       <c r="B98" t="n">
-        <v>0.5676446051167965</v>
+        <v>0.582174638487208</v>
       </c>
       <c r="C98" t="n">
-        <v>0.8467741935483871</v>
+        <v>0.8629032258064516</v>
       </c>
     </row>
     <row r="99" spans="1:3">
@@ -3021,139 +4368,139 @@
         <v>0.7327586206896551</v>
       </c>
       <c r="B99" t="n">
-        <v>0.5676446051167965</v>
+        <v>0.582174638487208</v>
       </c>
       <c r="C99" t="n">
-        <v>0.8790322580645161</v>
+        <v>0.8629032258064516</v>
       </c>
     </row>
     <row r="100" spans="1:3">
       <c r="A100" t="n">
-        <v>0.7672413793103449</v>
+        <v>0.7327586206896551</v>
       </c>
       <c r="B100" t="n">
-        <v>0.5676446051167965</v>
+        <v>0.582174638487208</v>
       </c>
       <c r="C100" t="n">
-        <v>0.8790322580645161</v>
+        <v>0.8709677419354839</v>
       </c>
     </row>
     <row r="101" spans="1:3">
       <c r="A101" t="n">
-        <v>0.7672413793103449</v>
+        <v>0.7413793103448276</v>
       </c>
       <c r="B101" t="n">
-        <v>0.5676446051167965</v>
+        <v>0.582174638487208</v>
       </c>
       <c r="C101" t="n">
-        <v>0.8951612903225806</v>
+        <v>0.8709677419354839</v>
       </c>
     </row>
     <row r="102" spans="1:3">
       <c r="A102" t="n">
-        <v>0.8103448275862069</v>
+        <v>0.7413793103448276</v>
       </c>
       <c r="B102" t="n">
-        <v>0.5676446051167965</v>
+        <v>0.582174638487208</v>
       </c>
       <c r="C102" t="n">
-        <v>0.8951612903225806</v>
+        <v>0.8790322580645161</v>
       </c>
     </row>
     <row r="103" spans="1:3">
       <c r="A103" t="n">
-        <v>0.8103448275862069</v>
+        <v>0.7758620689655172</v>
       </c>
       <c r="B103" t="n">
-        <v>0.5676446051167965</v>
+        <v>0.582174638487208</v>
       </c>
       <c r="C103" t="n">
-        <v>0.9193548387096774</v>
+        <v>0.8790322580645161</v>
       </c>
     </row>
     <row r="104" spans="1:3">
       <c r="A104" t="n">
-        <v>0.8448275862068966</v>
+        <v>0.7758620689655172</v>
       </c>
       <c r="B104" t="n">
-        <v>0.5676446051167965</v>
+        <v>0.582174638487208</v>
       </c>
       <c r="C104" t="n">
-        <v>0.9193548387096774</v>
+        <v>0.8870967741935484</v>
       </c>
     </row>
     <row r="105" spans="1:3">
       <c r="A105" t="n">
-        <v>0.8448275862068966</v>
+        <v>0.7844827586206896</v>
       </c>
       <c r="B105" t="n">
-        <v>0.5676446051167965</v>
+        <v>0.582174638487208</v>
       </c>
       <c r="C105" t="n">
-        <v>0.9274193548387096</v>
+        <v>0.8870967741935484</v>
       </c>
     </row>
     <row r="106" spans="1:3">
       <c r="A106" t="n">
-        <v>0.853448275862069</v>
+        <v>0.7844827586206896</v>
       </c>
       <c r="B106" t="n">
-        <v>0.5676446051167965</v>
+        <v>0.582174638487208</v>
       </c>
       <c r="C106" t="n">
-        <v>0.9274193548387096</v>
+        <v>0.8951612903225806</v>
       </c>
     </row>
     <row r="107" spans="1:3">
       <c r="A107" t="n">
-        <v>0.853448275862069</v>
+        <v>0.8017241379310345</v>
       </c>
       <c r="B107" t="n">
-        <v>0.5676446051167965</v>
+        <v>0.582174638487208</v>
       </c>
       <c r="C107" t="n">
-        <v>0.9354838709677419</v>
+        <v>0.8951612903225806</v>
       </c>
     </row>
     <row r="108" spans="1:3">
       <c r="A108" t="n">
-        <v>0.9051724137931034</v>
+        <v>0.8017241379310345</v>
       </c>
       <c r="B108" t="n">
-        <v>0.5676446051167965</v>
+        <v>0.582174638487208</v>
       </c>
       <c r="C108" t="n">
-        <v>0.9354838709677419</v>
+        <v>0.9193548387096774</v>
       </c>
     </row>
     <row r="109" spans="1:3">
       <c r="A109" t="n">
-        <v>0.9051724137931034</v>
+        <v>0.8103448275862069</v>
       </c>
       <c r="B109" t="n">
-        <v>0.5676446051167965</v>
+        <v>0.582174638487208</v>
       </c>
       <c r="C109" t="n">
-        <v>0.9435483870967742</v>
+        <v>0.9193548387096774</v>
       </c>
     </row>
     <row r="110" spans="1:3">
       <c r="A110" t="n">
-        <v>0.9224137931034483</v>
+        <v>0.8103448275862069</v>
       </c>
       <c r="B110" t="n">
-        <v>0.5676446051167965</v>
+        <v>0.582174638487208</v>
       </c>
       <c r="C110" t="n">
-        <v>0.9435483870967742</v>
+        <v>0.9516129032258065</v>
       </c>
     </row>
     <row r="111" spans="1:3">
       <c r="A111" t="n">
-        <v>0.9224137931034483</v>
+        <v>0.8620689655172413</v>
       </c>
       <c r="B111" t="n">
-        <v>0.5676446051167965</v>
+        <v>0.582174638487208</v>
       </c>
       <c r="C111" t="n">
         <v>0.9516129032258065</v>
@@ -3161,32 +4508,32 @@
     </row>
     <row r="112" spans="1:3">
       <c r="A112" t="n">
-        <v>0.9568965517241379</v>
+        <v>0.8620689655172413</v>
       </c>
       <c r="B112" t="n">
-        <v>0.5676446051167965</v>
+        <v>0.582174638487208</v>
       </c>
       <c r="C112" t="n">
-        <v>0.9516129032258065</v>
+        <v>0.9596774193548387</v>
       </c>
     </row>
     <row r="113" spans="1:3">
       <c r="A113" t="n">
-        <v>0.9568965517241379</v>
+        <v>0.9051724137931034</v>
       </c>
       <c r="B113" t="n">
-        <v>0.5676446051167965</v>
+        <v>0.582174638487208</v>
       </c>
       <c r="C113" t="n">
-        <v>0.967741935483871</v>
+        <v>0.9596774193548387</v>
       </c>
     </row>
     <row r="114" spans="1:3">
       <c r="A114" t="n">
-        <v>1</v>
+        <v>0.9051724137931034</v>
       </c>
       <c r="B114" t="n">
-        <v>0.5676446051167965</v>
+        <v>0.582174638487208</v>
       </c>
       <c r="C114" t="n">
         <v>0.967741935483871</v>
@@ -3194,12 +4541,67 @@
     </row>
     <row r="115" spans="1:3">
       <c r="A115" t="n">
+        <v>0.9396551724137931</v>
+      </c>
+      <c r="B115" t="n">
+        <v>0.582174638487208</v>
+      </c>
+      <c r="C115" t="n">
+        <v>0.967741935483871</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3">
+      <c r="A116" t="n">
+        <v>0.9396551724137931</v>
+      </c>
+      <c r="B116" t="n">
+        <v>0.582174638487208</v>
+      </c>
+      <c r="C116" t="n">
+        <v>0.9838709677419355</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3">
+      <c r="A117" t="n">
+        <v>0.9827586206896551</v>
+      </c>
+      <c r="B117" t="n">
+        <v>0.582174638487208</v>
+      </c>
+      <c r="C117" t="n">
+        <v>0.9838709677419355</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3">
+      <c r="A118" t="n">
+        <v>0.9827586206896551</v>
+      </c>
+      <c r="B118" t="n">
+        <v>0.582174638487208</v>
+      </c>
+      <c r="C118" t="n">
+        <v>0.9919354838709677</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3">
+      <c r="A119" t="n">
         <v>1</v>
       </c>
-      <c r="B115" t="n">
-        <v>0.5676446051167965</v>
-      </c>
-      <c r="C115" t="n">
+      <c r="B119" t="n">
+        <v>0.582174638487208</v>
+      </c>
+      <c r="C119" t="n">
+        <v>0.9919354838709677</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3">
+      <c r="A120" t="n">
+        <v>1</v>
+      </c>
+      <c r="B120" t="n">
+        <v>0.582174638487208</v>
+      </c>
+      <c r="C120" t="n">
         <v>1</v>
       </c>
     </row>
